--- a/input/PL/reg_health.xlsx
+++ b/input/PL/reg_health.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10201"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_90518EA237558534F7C5DEFB31B3BA5B2331EFA0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB113E64-0ACA-4024-AC08-580B900F0065}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pineapple/IdeaProjects/SimPathsEU_JAN/input/PL/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43B3D606-70E3-AC40-A321-8D43858E16CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12720" yWindow="1700" windowWidth="32620" windowHeight="26080" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -35,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="160">
   <si>
     <t>Description:</t>
   </si>
@@ -451,9 +456,6 @@
     <t>Constant_VeryGood</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Dgn</t>
   </si>
   <si>
@@ -524,7 +526,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -532,11 +534,13 @@
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -569,8 +573,8 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -589,9 +593,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -629,7 +633,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -735,7 +739,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -877,7 +881,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -887,13 +891,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -901,7 +905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -909,7 +913,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -917,7 +921,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -925,7 +929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -933,17 +937,17 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -951,7 +955,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -959,7 +963,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
@@ -978,19 +982,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -998,7 +1002,7 @@
         <v>0.39939926110494928</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -1006,12 +1010,12 @@
         <v>226152</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -1025,7 +1029,7 @@
         <v>16772.939801835357</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1050,9 +1054,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>24</v>
       </c>
@@ -1063,7 +1067,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>27</v>
       </c>
@@ -1074,7 +1078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>27</v>
       </c>
@@ -1085,7 +1089,7 @@
         <v>-0.18963035214594429</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>27</v>
       </c>
@@ -1096,7 +1100,7 @@
         <v>4.0957923585510217E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>27</v>
       </c>
@@ -1107,7 +1111,7 @@
         <v>-4.6411088437339738E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>27</v>
       </c>
@@ -1118,7 +1122,7 @@
         <v>4.9463901878144738E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>27</v>
       </c>
@@ -1129,7 +1133,7 @@
         <v>-9.4413680619563636E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>27</v>
       </c>
@@ -1140,7 +1144,7 @@
         <v>2.681059036543179</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>27</v>
       </c>
@@ -1151,7 +1155,7 @@
         <v>4.500833128147578</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>27</v>
       </c>
@@ -1162,7 +1166,7 @@
         <v>5.6649030946865819</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>27</v>
       </c>
@@ -1173,7 +1177,7 @@
         <v>5.9568622266182114</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>27</v>
       </c>
@@ -1184,7 +1188,7 @@
         <v>0.29037236952335221</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>27</v>
       </c>
@@ -1195,7 +1199,7 @@
         <v>-7.5338754393412449E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>27</v>
       </c>
@@ -1206,7 +1210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>27</v>
       </c>
@@ -1217,7 +1221,7 @@
         <v>-0.42071580982919049</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>27</v>
       </c>
@@ -1228,7 +1232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>27</v>
       </c>
@@ -1239,7 +1243,7 @@
         <v>-0.85437075979043386</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>27</v>
       </c>
@@ -1250,7 +1254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>27</v>
       </c>
@@ -1261,7 +1265,7 @@
         <v>3.4138454923956237E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>27</v>
       </c>
@@ -1272,7 +1276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>27</v>
       </c>
@@ -1283,7 +1287,7 @@
         <v>0.30241101118619074</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>27</v>
       </c>
@@ -1294,7 +1298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>27</v>
       </c>
@@ -1305,7 +1309,7 @@
         <v>-0.13580898595324012</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>27</v>
       </c>
@@ -1316,7 +1320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>27</v>
       </c>
@@ -1327,7 +1331,7 @@
         <v>-2.4361294753048931E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>27</v>
       </c>
@@ -1338,7 +1342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>27</v>
       </c>
@@ -1349,7 +1353,7 @@
         <v>-4.3085970569509129E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>27</v>
       </c>
@@ -1360,7 +1364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>27</v>
       </c>
@@ -1371,7 +1375,7 @@
         <v>-4.898005258661333E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>27</v>
       </c>
@@ -1382,7 +1386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>27</v>
       </c>
@@ -1393,7 +1397,7 @@
         <v>-3.2385707961035327E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>27</v>
       </c>
@@ -1404,7 +1408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>27</v>
       </c>
@@ -1415,7 +1419,7 @@
         <v>6.0860272169145441E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>27</v>
       </c>
@@ -1426,7 +1430,7 @@
         <v>2.0600138194558016E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>27</v>
       </c>
@@ -1437,7 +1441,7 @@
         <v>-2.9890777167262505E-4</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>27</v>
       </c>
@@ -1448,7 +1452,7 @@
         <v>-5.2838191667251802E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>63</v>
       </c>
@@ -1459,7 +1463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>63</v>
       </c>
@@ -1470,7 +1474,7 @@
         <v>-0.12581875400858841</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>63</v>
       </c>
@@ -1481,7 +1485,7 @@
         <v>-5.0799356973561215E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>63</v>
       </c>
@@ -1492,7 +1496,7 @@
         <v>-1.060292663460895E-4</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>63</v>
       </c>
@@ -1503,7 +1507,7 @@
         <v>4.9463901878155135E-4</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>63</v>
       </c>
@@ -1514,7 +1518,7 @@
         <v>-9.4413680619564497E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>63</v>
       </c>
@@ -1525,7 +1529,7 @@
         <v>0.9714053804537135</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>63</v>
       </c>
@@ -1536,7 +1540,7 @@
         <v>3.6379182213213195</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>63</v>
       </c>
@@ -1547,7 +1551,7 @@
         <v>5.0731343500831008</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>63</v>
       </c>
@@ -1558,7 +1562,7 @@
         <v>5.7040641768978384</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>63</v>
       </c>
@@ -1569,7 +1573,7 @@
         <v>0.2903723695233531</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>63</v>
       </c>
@@ -1580,7 +1584,7 @@
         <v>-0.20809114733539727</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>63</v>
       </c>
@@ -1591,7 +1595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>63</v>
       </c>
@@ -1602,7 +1606,7 @@
         <v>8.5992587613753779E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>63</v>
       </c>
@@ -1613,7 +1617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>63</v>
       </c>
@@ -1624,7 +1628,7 @@
         <v>-0.58475721232064692</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>63</v>
       </c>
@@ -1635,7 +1639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>63</v>
       </c>
@@ -1646,7 +1650,7 @@
         <v>-9.1540324059348754E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>63</v>
       </c>
@@ -1657,7 +1661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>63</v>
       </c>
@@ -1668,7 +1672,7 @@
         <v>0.18934460214316817</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>63</v>
       </c>
@@ -1679,7 +1683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>63</v>
       </c>
@@ -1690,7 +1694,7 @@
         <v>-0.17716717618686767</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>63</v>
       </c>
@@ -1701,7 +1705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>63</v>
       </c>
@@ -1712,7 +1716,7 @@
         <v>-2.4361294753050322E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>63</v>
       </c>
@@ -1723,7 +1727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>63</v>
       </c>
@@ -1734,7 +1738,7 @@
         <v>-4.3085970569509441E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>63</v>
       </c>
@@ -1745,7 +1749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>63</v>
       </c>
@@ -1756,7 +1760,7 @@
         <v>-4.8980052586614836E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>63</v>
       </c>
@@ -1767,7 +1771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>63</v>
       </c>
@@ -1778,7 +1782,7 @@
         <v>-3.2385707961036236E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>63</v>
       </c>
@@ -1789,7 +1793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
         <v>63</v>
       </c>
@@ -1800,7 +1804,7 @@
         <v>-9.9851073132774651E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>63</v>
       </c>
@@ -1811,7 +1815,7 @@
         <v>2.0600138194560278E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
         <v>63</v>
       </c>
@@ -1822,7 +1826,7 @@
         <v>1.8409605628165893E-4</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
         <v>63</v>
       </c>
@@ -1833,7 +1837,7 @@
         <v>-0.6223171231095932</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
         <v>64</v>
       </c>
@@ -1844,7 +1848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
         <v>64</v>
       </c>
@@ -1855,7 +1859,7 @@
         <v>3.7863112467228191E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
         <v>64</v>
       </c>
@@ -1866,7 +1870,7 @@
         <v>-5.748144706385229E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
         <v>64</v>
       </c>
@@ -1877,7 +1881,7 @@
         <v>2.0423933307643378E-4</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
         <v>64</v>
       </c>
@@ -1888,7 +1892,7 @@
         <v>4.9463901878232005E-4</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
         <v>64</v>
       </c>
@@ -1899,7 +1903,7 @@
         <v>-9.4413680619563733E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
         <v>64</v>
       </c>
@@ -1910,7 +1914,7 @@
         <v>0.50383034051643105</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
         <v>64</v>
       </c>
@@ -1921,7 +1925,7 @@
         <v>1.7051327989675118</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
         <v>64</v>
       </c>
@@ -1932,7 +1936,7 @@
         <v>4.3022643857459402</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
         <v>64</v>
       </c>
@@ -1943,7 +1947,7 @@
         <v>5.2460617926316617</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
         <v>64</v>
       </c>
@@ -1954,7 +1958,7 @@
         <v>0.29037236952335288</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
         <v>64</v>
       </c>
@@ -1965,7 +1969,7 @@
         <v>-0.34423615677352987</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
         <v>64</v>
       </c>
@@ -1976,7 +1980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
         <v>64</v>
       </c>
@@ -1987,7 +1991,7 @@
         <v>-0.14767664137642691</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
         <v>64</v>
       </c>
@@ -1998,7 +2002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
         <v>64</v>
       </c>
@@ -2009,7 +2013,7 @@
         <v>-0.40763041191716143</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
         <v>64</v>
       </c>
@@ -2020,7 +2024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
         <v>64</v>
       </c>
@@ -2031,7 +2035,7 @@
         <v>-9.0522898314618128E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
         <v>64</v>
       </c>
@@ -2042,7 +2046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
         <v>64</v>
       </c>
@@ -2053,7 +2057,7 @@
         <v>0.17430243544932528</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
         <v>64</v>
       </c>
@@ -2064,7 +2068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
         <v>64</v>
       </c>
@@ -2075,7 +2079,7 @@
         <v>-5.3645667005012609E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
         <v>64</v>
       </c>
@@ -2086,7 +2090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
         <v>64</v>
       </c>
@@ -2097,7 +2101,7 @@
         <v>-2.4361294753050104E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
         <v>64</v>
       </c>
@@ -2108,7 +2112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
         <v>64</v>
       </c>
@@ -2119,7 +2123,7 @@
         <v>-4.3085970569508435E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
         <v>64</v>
       </c>
@@ -2130,7 +2134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
         <v>64</v>
       </c>
@@ -2141,7 +2145,7 @@
         <v>-4.8980052586614087E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
         <v>64</v>
       </c>
@@ -2152,7 +2156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
         <v>64</v>
       </c>
@@ -2163,7 +2167,7 @@
         <v>-3.2385707961036979E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
         <v>64</v>
       </c>
@@ -2174,7 +2178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
         <v>64</v>
       </c>
@@ -2185,7 +2189,7 @@
         <v>-0.11802604636731884</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
         <v>64</v>
       </c>
@@ -2196,7 +2200,7 @@
         <v>2.0600138194558547E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
         <v>64</v>
       </c>
@@ -2207,7 +2211,7 @@
         <v>3.2247227250165999E-4</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
         <v>64</v>
       </c>
@@ -2218,7 +2222,7 @@
         <v>-0.61306810447727689</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
         <v>65</v>
       </c>
@@ -2229,7 +2233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
         <v>65</v>
       </c>
@@ -2240,7 +2244,7 @@
         <v>0.1646026181731301</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
         <v>65</v>
       </c>
@@ -2251,7 +2255,7 @@
         <v>-5.5120170248580069E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
         <v>65</v>
       </c>
@@ -2262,7 +2266,7 @@
         <v>1.2305366181408761E-4</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
         <v>65</v>
       </c>
@@ -2273,7 +2277,7 @@
         <v>4.9463901878189808E-4</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
         <v>65</v>
       </c>
@@ -2284,7 +2288,7 @@
         <v>-9.4413680619564316E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
         <v>65</v>
       </c>
@@ -2295,7 +2299,7 @@
         <v>-0.38485788736084925</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
         <v>65</v>
       </c>
@@ -2306,7 +2310,7 @@
         <v>0.42936973370106113</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
         <v>65</v>
       </c>
@@ -2317,7 +2321,7 @@
         <v>1.6192195803908036</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
         <v>65</v>
       </c>
@@ -2328,7 +2332,7 @@
         <v>4.1050667011299584</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
         <v>65</v>
       </c>
@@ -2339,7 +2343,7 @@
         <v>0.29037236952335349</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
         <v>65</v>
       </c>
@@ -2350,7 +2354,7 @@
         <v>-0.18824203330667899</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
         <v>65</v>
       </c>
@@ -2361,7 +2365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
         <v>65</v>
       </c>
@@ -2372,7 +2376,7 @@
         <v>0.12787040024358656</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
         <v>65</v>
       </c>
@@ -2383,7 +2387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
         <v>65</v>
       </c>
@@ -2394,7 +2398,7 @@
         <v>-0.11349389258584382</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
         <v>65</v>
       </c>
@@ -2405,7 +2409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
         <v>65</v>
       </c>
@@ -2416,7 +2420,7 @@
         <v>-5.3417726719668053E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
         <v>65</v>
       </c>
@@ -2427,7 +2431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
         <v>65</v>
       </c>
@@ -2438,7 +2442,7 @@
         <v>4.4742962941089509E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
         <v>65</v>
       </c>
@@ -2449,7 +2453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
         <v>65</v>
       </c>
@@ -2460,7 +2464,7 @@
         <v>7.6200669989196571E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
         <v>65</v>
       </c>
@@ -2471,7 +2475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
         <v>65</v>
       </c>
@@ -2482,7 +2486,7 @@
         <v>-2.4361294753048768E-2</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
         <v>65</v>
       </c>
@@ -2493,7 +2497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
         <v>65</v>
       </c>
@@ -2504,7 +2508,7 @@
         <v>-4.3085970569508338E-2</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
         <v>65</v>
       </c>
@@ -2515,7 +2519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
         <v>65</v>
       </c>
@@ -2526,7 +2530,7 @@
         <v>-4.8980052586614808E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
         <v>65</v>
       </c>
@@ -2537,7 +2541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
         <v>65</v>
       </c>
@@ -2548,7 +2552,7 @@
         <v>-3.23857079610365E-2</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="s">
         <v>65</v>
       </c>
@@ -2559,7 +2563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="s">
         <v>65</v>
       </c>
@@ -2570,7 +2574,7 @@
         <v>-7.6501594578430088E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
         <v>65</v>
       </c>
@@ -2581,7 +2585,7 @@
         <v>2.0600138194558935E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" s="3" t="s">
         <v>65</v>
       </c>
@@ -2592,7 +2596,7 @@
         <v>-9.2923169656758398E-4</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
         <v>65</v>
       </c>
@@ -2610,13 +2614,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:BW73"/>
+  <dimension ref="A1:BV73"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection sqref="A1:A73"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="49.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:75">
+    <row r="1" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -2839,11 +2848,8 @@
       <c r="BV1" t="s">
         <v>137</v>
       </c>
-      <c r="BW1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="2" spans="1:75">
+    </row>
+    <row r="2" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>66</v>
       </c>
@@ -3067,7 +3073,7 @@
         <v>8.603436464115115E-6</v>
       </c>
     </row>
-    <row r="3" spans="1:75">
+    <row r="3" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>67</v>
       </c>
@@ -3291,7 +3297,7 @@
         <v>-1.2812976261387437E-5</v>
       </c>
     </row>
-    <row r="4" spans="1:75">
+    <row r="4" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>68</v>
       </c>
@@ -3515,7 +3521,7 @@
         <v>9.7176728153516493E-8</v>
       </c>
     </row>
-    <row r="5" spans="1:75">
+    <row r="5" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>69</v>
       </c>
@@ -3739,7 +3745,7 @@
         <v>4.3203048257406042E-7</v>
       </c>
     </row>
-    <row r="6" spans="1:75">
+    <row r="6" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>70</v>
       </c>
@@ -3963,7 +3969,7 @@
         <v>-8.9205612190397182E-5</v>
       </c>
     </row>
-    <row r="7" spans="1:75">
+    <row r="7" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>71</v>
       </c>
@@ -4187,7 +4193,7 @@
         <v>-6.6039086465824947E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:75">
+    <row r="8" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>72</v>
       </c>
@@ -4411,7 +4417,7 @@
         <v>-8.5714145047307471E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:75">
+    <row r="9" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>73</v>
       </c>
@@ -4635,7 +4641,7 @@
         <v>-1.0682634498569423E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:75">
+    <row r="10" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>74</v>
       </c>
@@ -4859,7 +4865,7 @@
         <v>-1.3445182261409973E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:75">
+    <row r="11" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>75</v>
       </c>
@@ -5083,7 +5089,7 @@
         <v>-8.9582549089108028E-5</v>
       </c>
     </row>
-    <row r="12" spans="1:75">
+    <row r="12" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>76</v>
       </c>
@@ -5307,7 +5313,7 @@
         <v>-4.6629013665700221E-5</v>
       </c>
     </row>
-    <row r="13" spans="1:75">
+    <row r="13" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>77</v>
       </c>
@@ -5531,7 +5537,7 @@
         <v>-2.7323907189371309E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:75">
+    <row r="14" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>78</v>
       </c>
@@ -5755,7 +5761,7 @@
         <v>-1.905144317200512E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:75">
+    <row r="15" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>79</v>
       </c>
@@ -5979,7 +5985,7 @@
         <v>1.0047423058314339E-6</v>
       </c>
     </row>
-    <row r="16" spans="1:75">
+    <row r="16" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>80</v>
       </c>
@@ -6203,7 +6209,7 @@
         <v>3.6896617422893743E-6</v>
       </c>
     </row>
-    <row r="17" spans="1:74">
+    <row r="17" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>81</v>
       </c>
@@ -6427,7 +6433,7 @@
         <v>-1.0018194860649368E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:74">
+    <row r="18" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>82</v>
       </c>
@@ -6651,7 +6657,7 @@
         <v>-5.9636128743685666E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:74">
+    <row r="19" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>83</v>
       </c>
@@ -6875,7 +6881,7 @@
         <v>-1.4973293208675776E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:74">
+    <row r="20" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>84</v>
       </c>
@@ -7099,7 +7105,7 @@
         <v>3.2137382441324615E-5</v>
       </c>
     </row>
-    <row r="21" spans="1:74">
+    <row r="21" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>85</v>
       </c>
@@ -7323,7 +7329,7 @@
         <v>-4.9088908253789996E-5</v>
       </c>
     </row>
-    <row r="22" spans="1:74">
+    <row r="22" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>86</v>
       </c>
@@ -7547,7 +7553,7 @@
         <v>-1.560542281355348E-5</v>
       </c>
     </row>
-    <row r="23" spans="1:74">
+    <row r="23" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>87</v>
       </c>
@@ -7771,7 +7777,7 @@
         <v>-2.2606212486755662E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:74">
+    <row r="24" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>88</v>
       </c>
@@ -7995,7 +8001,7 @@
         <v>6.7204857283085844E-5</v>
       </c>
     </row>
-    <row r="25" spans="1:74">
+    <row r="25" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>89</v>
       </c>
@@ -8219,7 +8225,7 @@
         <v>1.9320505175530467E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:74">
+    <row r="26" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>90</v>
       </c>
@@ -8443,7 +8449,7 @@
         <v>-7.2979783935579233E-5</v>
       </c>
     </row>
-    <row r="27" spans="1:74">
+    <row r="27" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>91</v>
       </c>
@@ -8667,7 +8673,7 @@
         <v>-2.2196447204578171E-5</v>
       </c>
     </row>
-    <row r="28" spans="1:74">
+    <row r="28" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>92</v>
       </c>
@@ -8891,7 +8897,7 @@
         <v>1.7089122386681284E-7</v>
       </c>
     </row>
-    <row r="29" spans="1:74">
+    <row r="29" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>93</v>
       </c>
@@ -9115,7 +9121,7 @@
         <v>-2.0844924434300803E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:74">
+    <row r="30" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>94</v>
       </c>
@@ -9339,7 +9345,7 @@
         <v>-2.0776576455232318E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:74">
+    <row r="31" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>95</v>
       </c>
@@ -9563,7 +9569,7 @@
         <v>-2.3314333068404887E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:74">
+    <row r="32" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>96</v>
       </c>
@@ -9787,7 +9793,7 @@
         <v>-2.4466777877365248E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:74">
+    <row r="33" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>97</v>
       </c>
@@ -10011,7 +10017,7 @@
         <v>-1.0535872404771702E-4</v>
       </c>
     </row>
-    <row r="34" spans="1:74">
+    <row r="34" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>98</v>
       </c>
@@ -10235,7 +10241,7 @@
         <v>-2.0450716927803916E-4</v>
       </c>
     </row>
-    <row r="35" spans="1:74">
+    <row r="35" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>99</v>
       </c>
@@ -10459,7 +10465,7 @@
         <v>1.6718104981377908E-5</v>
       </c>
     </row>
-    <row r="36" spans="1:74">
+    <row r="36" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>100</v>
       </c>
@@ -10683,7 +10689,7 @@
         <v>-5.6210144793009755E-5</v>
       </c>
     </row>
-    <row r="37" spans="1:74">
+    <row r="37" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>101</v>
       </c>
@@ -10907,7 +10913,7 @@
         <v>-9.8355685067521282E-6</v>
       </c>
     </row>
-    <row r="38" spans="1:74">
+    <row r="38" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>102</v>
       </c>
@@ -11131,7 +11137,7 @@
         <v>-1.4381050339880039E-4</v>
       </c>
     </row>
-    <row r="39" spans="1:74">
+    <row r="39" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>103</v>
       </c>
@@ -11355,7 +11361,7 @@
         <v>-5.563573917704169E-5</v>
       </c>
     </row>
-    <row r="40" spans="1:74">
+    <row r="40" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>104</v>
       </c>
@@ -11579,7 +11585,7 @@
         <v>6.6925806170091661E-5</v>
       </c>
     </row>
-    <row r="41" spans="1:74">
+    <row r="41" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>105</v>
       </c>
@@ -11803,7 +11809,7 @@
         <v>2.1068389147247714E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:74">
+    <row r="42" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>106</v>
       </c>
@@ -12027,7 +12033,7 @@
         <v>-5.9737926575849332E-5</v>
       </c>
     </row>
-    <row r="43" spans="1:74">
+    <row r="43" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>107</v>
       </c>
@@ -12251,7 +12257,7 @@
         <v>-6.4744149583329463E-5</v>
       </c>
     </row>
-    <row r="44" spans="1:74">
+    <row r="44" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>108</v>
       </c>
@@ -12475,7 +12481,7 @@
         <v>5.9569864902240608E-7</v>
       </c>
     </row>
-    <row r="45" spans="1:74">
+    <row r="45" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>109</v>
       </c>
@@ -12699,7 +12705,7 @@
         <v>-1.0790264217428722E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:74">
+    <row r="46" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>110</v>
       </c>
@@ -12923,7 +12929,7 @@
         <v>-1.0844740925797217E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:74">
+    <row r="47" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>111</v>
       </c>
@@ -13147,7 +13153,7 @@
         <v>-1.0895200409266382E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:74">
+    <row r="48" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>112</v>
       </c>
@@ -13371,7 +13377,7 @@
         <v>-1.0995871149923862E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:74">
+    <row r="49" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>113</v>
       </c>
@@ -13595,7 +13601,7 @@
         <v>-2.8266818519115761E-5</v>
       </c>
     </row>
-    <row r="50" spans="1:74">
+    <row r="50" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>114</v>
       </c>
@@ -13819,7 +13825,7 @@
         <v>-6.2921247327029067E-4</v>
       </c>
     </row>
-    <row r="51" spans="1:74">
+    <row r="51" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>115</v>
       </c>
@@ -14043,7 +14049,7 @@
         <v>-1.9841975073200475E-4</v>
       </c>
     </row>
-    <row r="52" spans="1:74">
+    <row r="52" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>116</v>
       </c>
@@ -14267,7 +14273,7 @@
         <v>4.1294230163077418E-6</v>
       </c>
     </row>
-    <row r="53" spans="1:74">
+    <row r="53" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>117</v>
       </c>
@@ -14491,7 +14497,7 @@
         <v>-1.4457353855374685E-4</v>
       </c>
     </row>
-    <row r="54" spans="1:74">
+    <row r="54" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>118</v>
       </c>
@@ -14715,7 +14721,7 @@
         <v>-2.2872489877903685E-4</v>
       </c>
     </row>
-    <row r="55" spans="1:74">
+    <row r="55" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>119</v>
       </c>
@@ -14939,7 +14945,7 @@
         <v>-1.4763742216478284E-4</v>
       </c>
     </row>
-    <row r="56" spans="1:74">
+    <row r="56" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>120</v>
       </c>
@@ -15163,7 +15169,7 @@
         <v>6.6279016572581449E-5</v>
       </c>
     </row>
-    <row r="57" spans="1:74">
+    <row r="57" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>121</v>
       </c>
@@ -15387,7 +15393,7 @@
         <v>3.1069400550118413E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:74">
+    <row r="58" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>122</v>
       </c>
@@ -15611,7 +15617,7 @@
         <v>-4.5121214392848327E-4</v>
       </c>
     </row>
-    <row r="59" spans="1:74">
+    <row r="59" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>123</v>
       </c>
@@ -15835,7 +15841,7 @@
         <v>-5.5940472475455466E-4</v>
       </c>
     </row>
-    <row r="60" spans="1:74">
+    <row r="60" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>124</v>
       </c>
@@ -16059,7 +16065,7 @@
         <v>5.6024363264548793E-6</v>
       </c>
     </row>
-    <row r="61" spans="1:74">
+    <row r="61" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>125</v>
       </c>
@@ -16283,7 +16289,7 @@
         <v>-5.3705542757648439E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:74">
+    <row r="62" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>126</v>
       </c>
@@ -16507,7 +16513,7 @@
         <v>-5.4083798278939554E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:74">
+    <row r="63" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>127</v>
       </c>
@@ -16731,7 +16737,7 @@
         <v>-5.4678251565504571E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:74">
+    <row r="64" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>128</v>
       </c>
@@ -16955,7 +16961,7 @@
         <v>-5.4901926822652741E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:74">
+    <row r="65" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>129</v>
       </c>
@@ -17179,7 +17185,7 @@
         <v>-7.8709031585122121E-4</v>
       </c>
     </row>
-    <row r="66" spans="1:74">
+    <row r="66" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>130</v>
       </c>
@@ -17403,7 +17409,7 @@
         <v>-3.1795409514859957E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:74">
+    <row r="67" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>131</v>
       </c>
@@ -17627,7 +17633,7 @@
         <v>-1.4790771046840718E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:74">
+    <row r="68" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
         <v>132</v>
       </c>
@@ -17851,7 +17857,7 @@
         <v>-3.1583597007928262E-4</v>
       </c>
     </row>
-    <row r="69" spans="1:74">
+    <row r="69" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>133</v>
       </c>
@@ -18075,7 +18081,7 @@
         <v>-6.0737705494627375E-4</v>
       </c>
     </row>
-    <row r="70" spans="1:74">
+    <row r="70" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
         <v>134</v>
       </c>
@@ -18299,7 +18305,7 @@
         <v>-1.4891572636264911E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:74">
+    <row r="71" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
         <v>135</v>
       </c>
@@ -18523,7 +18529,7 @@
         <v>-4.3803746772915213E-4</v>
       </c>
     </row>
-    <row r="72" spans="1:74">
+    <row r="72" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
         <v>136</v>
       </c>
@@ -18747,7 +18753,7 @@
         <v>6.5403376676014175E-5</v>
       </c>
     </row>
-    <row r="73" spans="1:74">
+    <row r="73" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
         <v>137</v>
       </c>
@@ -18978,13 +18984,18 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:AF30"/>
+  <dimension ref="A1:AE30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:AE30"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -18992,7 +19003,7 @@
         <v>26</v>
       </c>
       <c r="C1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D1" t="s">
         <v>30</v>
@@ -19001,37 +19012,37 @@
         <v>31</v>
       </c>
       <c r="F1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G1" t="s">
         <v>140</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>141</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>142</v>
-      </c>
-      <c r="I1" t="s">
-        <v>143</v>
       </c>
       <c r="J1" t="s">
         <v>38</v>
       </c>
       <c r="K1" t="s">
+        <v>143</v>
+      </c>
+      <c r="L1" t="s">
         <v>144</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>145</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>146</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>147</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>148</v>
-      </c>
-      <c r="P1" t="s">
-        <v>149</v>
       </c>
       <c r="Q1" t="s">
         <v>34</v>
@@ -19043,2798 +19054,2795 @@
         <v>36</v>
       </c>
       <c r="T1" t="s">
+        <v>149</v>
+      </c>
+      <c r="U1" t="s">
         <v>150</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>151</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>152</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>153</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>154</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>155</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>156</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>157</v>
       </c>
       <c r="AB1" t="s">
         <v>60</v>
       </c>
       <c r="AC1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AD1" t="s">
         <v>158</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>159</v>
       </c>
-      <c r="AE1" t="s">
-        <v>160</v>
-      </c>
-      <c r="AF1" t="s">
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="2" spans="1:32">
-      <c r="A2" t="s">
-        <v>139</v>
-      </c>
       <c r="B2">
-        <v>0.19067317126131902</v>
+        <v>0.12774443708769212</v>
       </c>
       <c r="C2">
-        <v>6.0950304447628513E-4</v>
+        <v>7.4514965914618432E-4</v>
       </c>
       <c r="D2">
-        <v>1.9491902677780278E-5</v>
+        <v>1.9624633448122254E-5</v>
       </c>
       <c r="E2">
-        <v>-1.6592634582706844E-7</v>
+        <v>-1.8288554276505656E-7</v>
       </c>
       <c r="F2">
-        <v>-6.4303046240298534E-5</v>
+        <v>-8.4954893382255015E-5</v>
       </c>
       <c r="G2">
-        <v>-3.3717804010631722E-5</v>
+        <v>-7.187950206726082E-5</v>
       </c>
       <c r="H2">
-        <v>-7.1264900915272831E-5</v>
+        <v>-1.3269611063974521E-4</v>
       </c>
       <c r="I2">
-        <v>-9.1831321913522472E-5</v>
+        <v>-1.5382630073330097E-4</v>
       </c>
       <c r="J2">
-        <v>-5.987724315022452E-6</v>
+        <v>-4.7458831285795264E-5</v>
       </c>
       <c r="K2">
-        <v>-1.3328483118921474E-5</v>
+        <v>-3.0723473290725442E-5</v>
       </c>
       <c r="L2">
-        <v>9.8646990294413343E-5</v>
+        <v>9.8730768588464084E-5</v>
       </c>
       <c r="M2">
-        <v>1.4263401436300359E-4</v>
+        <v>1.6221341009621689E-4</v>
       </c>
       <c r="N2">
-        <v>1.5306324128853643E-4</v>
+        <v>1.9310326788891442E-4</v>
       </c>
       <c r="O2">
-        <v>1.201708415357276E-4</v>
+        <v>1.677883621295305E-4</v>
       </c>
       <c r="P2">
-        <v>9.5651368701770369E-7</v>
+        <v>-1.1134697861346729E-4</v>
       </c>
       <c r="Q2">
-        <v>8.5166850015352407E-5</v>
+        <v>5.6602125922851727E-5</v>
       </c>
       <c r="R2">
-        <v>6.1492682015432262E-5</v>
+        <v>7.6445822694221616E-6</v>
       </c>
       <c r="S2">
-        <v>-2.555815409651486E-5</v>
+        <v>-8.4313927952784902E-5</v>
       </c>
       <c r="T2">
-        <v>-3.1674055771322336E-5</v>
+        <v>-1.6944340631422167E-5</v>
       </c>
       <c r="U2">
-        <v>4.0330970031752387E-5</v>
+        <v>4.8820412245630587E-5</v>
       </c>
       <c r="V2">
-        <v>1.5640731584366044E-5</v>
+        <v>-2.3425659878264688E-5</v>
       </c>
       <c r="W2">
-        <v>2.9070517999310559E-4</v>
+        <v>3.0870727675756253E-4</v>
       </c>
       <c r="X2">
-        <v>1.3824666273086433E-5</v>
+        <v>-8.0094570528247227E-6</v>
       </c>
       <c r="Y2">
-        <v>9.7018682663903947E-5</v>
+        <v>9.1913518446708252E-5</v>
       </c>
       <c r="Z2">
-        <v>2.5756222438777611E-5</v>
+        <v>7.2387238081002351E-6</v>
       </c>
       <c r="AA2">
-        <v>5.2233129869678745E-5</v>
+        <v>3.3528623828442484E-5</v>
       </c>
       <c r="AB2">
-        <v>1.1974134353835163E-6</v>
+        <v>-2.6493024681511719E-7</v>
       </c>
       <c r="AC2">
-        <v>5.1003162290910677E-5</v>
+        <v>9.139708958335078E-5</v>
       </c>
       <c r="AD2">
-        <v>2.4029549536705603E-5</v>
+        <v>3.1871611625586197E-5</v>
       </c>
       <c r="AE2">
-        <v>-1.0627934613362717E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32">
+        <v>-9.7755055185580193E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>30</v>
       </c>
       <c r="B3">
-        <v>0.13866041676823837</v>
+        <v>4.5521131729922504E-2</v>
       </c>
       <c r="C3">
-        <v>1.9491902677780278E-5</v>
+        <v>1.9624633448122254E-5</v>
       </c>
       <c r="D3">
-        <v>6.871702402257939E-5</v>
+        <v>8.162188824489018E-5</v>
       </c>
       <c r="E3">
-        <v>-6.7788545782849084E-7</v>
+        <v>-8.5354924001178949E-7</v>
       </c>
       <c r="F3">
-        <v>-3.6442377490672836E-5</v>
+        <v>-4.3758313476922178E-5</v>
       </c>
       <c r="G3">
-        <v>-7.7171145165781234E-5</v>
+        <v>-8.4401658687695811E-5</v>
       </c>
       <c r="H3">
-        <v>-8.5115021233651204E-5</v>
+        <v>-9.7555170452453838E-5</v>
       </c>
       <c r="I3">
-        <v>-1.1065634984404126E-4</v>
+        <v>-1.162377089369244E-4</v>
       </c>
       <c r="J3">
-        <v>-3.5374656637009554E-6</v>
+        <v>-4.1146056927678326E-5</v>
       </c>
       <c r="K3">
-        <v>-3.9348946456831273E-5</v>
+        <v>-6.6156180749908579E-5</v>
       </c>
       <c r="L3">
-        <v>-5.2485051725905761E-5</v>
+        <v>-9.5167465782157912E-5</v>
       </c>
       <c r="M3">
-        <v>-7.5999593783590401E-5</v>
+        <v>-1.0133021439160186E-4</v>
       </c>
       <c r="N3">
-        <v>-9.0903207386419473E-5</v>
+        <v>-1.0299788047986097E-4</v>
       </c>
       <c r="O3">
-        <v>-6.1911960528979973E-5</v>
+        <v>-7.3005886602247032E-5</v>
       </c>
       <c r="P3">
-        <v>-7.5911235528036079E-5</v>
+        <v>-1.5781405467501277E-4</v>
       </c>
       <c r="Q3">
-        <v>-7.4527061529504812E-5</v>
+        <v>-1.3012880412035683E-4</v>
       </c>
       <c r="R3">
-        <v>-7.7865674383883929E-5</v>
+        <v>-1.39705506618273E-4</v>
       </c>
       <c r="S3">
-        <v>-6.4399134241194486E-5</v>
+        <v>-1.176047139920382E-4</v>
       </c>
       <c r="T3">
-        <v>-1.8672075955236973E-5</v>
+        <v>-1.5262587174151468E-5</v>
       </c>
       <c r="U3">
-        <v>-1.1191223926293556E-5</v>
+        <v>-4.1301867216236935E-5</v>
       </c>
       <c r="V3">
-        <v>3.3481050824638518E-5</v>
+        <v>4.3363156643017118E-5</v>
       </c>
       <c r="W3">
-        <v>2.4415823306543962E-5</v>
+        <v>1.0826850725933893E-5</v>
       </c>
       <c r="X3">
-        <v>-2.79733426363412E-6</v>
+        <v>-2.0398592080721626E-5</v>
       </c>
       <c r="Y3">
-        <v>2.2640381871488959E-5</v>
+        <v>1.6150456546401093E-5</v>
       </c>
       <c r="Z3">
-        <v>2.9994045210235794E-5</v>
+        <v>2.1735605719534935E-5</v>
       </c>
       <c r="AA3">
-        <v>1.2317741396003566E-5</v>
+        <v>4.1014199652411923E-6</v>
       </c>
       <c r="AB3">
-        <v>6.300415800930245E-7</v>
+        <v>-9.3985151660886082E-7</v>
       </c>
       <c r="AC3">
-        <v>-3.8679320785091265E-6</v>
+        <v>1.599445550206453E-5</v>
       </c>
       <c r="AD3">
-        <v>9.5619237365435948E-6</v>
+        <v>-8.4789499803705412E-7</v>
       </c>
       <c r="AE3">
-        <v>-1.4409987321354822E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:32">
+        <v>-1.4848173391173573E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>31</v>
       </c>
       <c r="B4">
-        <v>-1.6344751369031761E-3</v>
+        <v>-4.5973390626318514E-4</v>
       </c>
       <c r="C4">
-        <v>-1.6592634582706844E-7</v>
+        <v>-1.8288554276505656E-7</v>
       </c>
       <c r="D4">
-        <v>-6.7788545782849084E-7</v>
+        <v>-8.5354924001178949E-7</v>
       </c>
       <c r="E4">
-        <v>6.8831740284930067E-9</v>
+        <v>9.1672597819005259E-9</v>
       </c>
       <c r="F4">
-        <v>3.6658017114194856E-7</v>
+        <v>4.3735896440787775E-7</v>
       </c>
       <c r="G4">
-        <v>9.1892115794131151E-7</v>
+        <v>9.5922400501194719E-7</v>
       </c>
       <c r="H4">
-        <v>1.0387203732618173E-6</v>
+        <v>1.1219869335755347E-6</v>
       </c>
       <c r="I4">
-        <v>1.2856962133687515E-6</v>
+        <v>1.2912676080866109E-6</v>
       </c>
       <c r="J4">
-        <v>1.4937566465018588E-7</v>
+        <v>5.6690268676859709E-7</v>
       </c>
       <c r="K4">
-        <v>4.4214369612763746E-7</v>
+        <v>7.5405900747580145E-7</v>
       </c>
       <c r="L4">
-        <v>3.4820558710616764E-7</v>
+        <v>8.2237516836211726E-7</v>
       </c>
       <c r="M4">
-        <v>5.5350734514542046E-7</v>
+        <v>8.2552983562765553E-7</v>
       </c>
       <c r="N4">
-        <v>7.4644683505220139E-7</v>
+        <v>8.5836541674277931E-7</v>
       </c>
       <c r="O4">
-        <v>5.6375642047314191E-7</v>
+        <v>6.6321259013278172E-7</v>
       </c>
       <c r="P4">
-        <v>5.9771173087726196E-7</v>
+        <v>1.4449691180721712E-6</v>
       </c>
       <c r="Q4">
-        <v>5.9960507776777125E-7</v>
+        <v>1.1322219654308161E-6</v>
       </c>
       <c r="R4">
-        <v>6.413162360681972E-7</v>
+        <v>1.2604026596136125E-6</v>
       </c>
       <c r="S4">
-        <v>5.4671457186456009E-7</v>
+        <v>1.0680655679355304E-6</v>
       </c>
       <c r="T4">
-        <v>1.9476403764153276E-7</v>
+        <v>1.5941586021270538E-7</v>
       </c>
       <c r="U4">
-        <v>2.9590460121082085E-7</v>
+        <v>6.5616568419696713E-7</v>
       </c>
       <c r="V4">
-        <v>-1.894050315349318E-7</v>
+        <v>-2.809565405901747E-7</v>
       </c>
       <c r="W4">
-        <v>9.0499618333845358E-8</v>
+        <v>2.7543366479169467E-7</v>
       </c>
       <c r="X4">
-        <v>3.9268149044268227E-8</v>
+        <v>2.3113621937432759E-7</v>
       </c>
       <c r="Y4">
-        <v>-2.0158034699957307E-7</v>
+        <v>-1.1474817564244896E-7</v>
       </c>
       <c r="Z4">
-        <v>-2.4338307746905507E-7</v>
+        <v>-1.4628693346793246E-7</v>
       </c>
       <c r="AA4">
-        <v>-9.2505600322732801E-8</v>
+        <v>9.9658730649675203E-9</v>
       </c>
       <c r="AB4">
-        <v>-1.1556930564425617E-8</v>
+        <v>6.2001875808227799E-9</v>
       </c>
       <c r="AC4">
-        <v>-1.0442171253122613E-7</v>
+        <v>-3.3267552490554085E-7</v>
       </c>
       <c r="AD4">
-        <v>-1.3114703424011713E-7</v>
+        <v>5.3732072533643771E-10</v>
       </c>
       <c r="AE4">
-        <v>1.3717734062701331E-5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32">
+        <v>1.5052130997645956E-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B5">
+        <v>4.0752689682862289E-2</v>
+      </c>
+      <c r="C5">
+        <v>-8.4954893382255015E-5</v>
+      </c>
+      <c r="D5">
+        <v>-4.3758313476922178E-5</v>
+      </c>
+      <c r="E5">
+        <v>4.3735896440787775E-7</v>
+      </c>
+      <c r="F5">
+        <v>2.6353431469576258E-3</v>
+      </c>
+      <c r="G5">
+        <v>1.5166073304720728E-3</v>
+      </c>
+      <c r="H5">
+        <v>1.5213077046322635E-3</v>
+      </c>
+      <c r="I5">
+        <v>1.5410849469485795E-3</v>
+      </c>
+      <c r="J5">
+        <v>2.7934752451994397E-5</v>
+      </c>
+      <c r="K5">
+        <v>3.9248537656565836E-5</v>
+      </c>
+      <c r="L5">
+        <v>1.217788196225131E-4</v>
+      </c>
+      <c r="M5">
+        <v>2.5226903138045667E-4</v>
+      </c>
+      <c r="N5">
+        <v>2.1942304735767014E-4</v>
+      </c>
+      <c r="O5">
+        <v>1.512158140607259E-4</v>
+      </c>
+      <c r="P5">
+        <v>2.0031524008061046E-4</v>
+      </c>
+      <c r="Q5">
+        <v>2.1580794203587036E-4</v>
+      </c>
+      <c r="R5">
+        <v>2.1298218476073749E-4</v>
+      </c>
+      <c r="S5">
+        <v>2.3980087508779121E-4</v>
+      </c>
+      <c r="T5">
+        <v>3.5404596948260058E-5</v>
+      </c>
+      <c r="U5">
+        <v>-5.8805653549864716E-5</v>
+      </c>
+      <c r="V5">
+        <v>7.6728530593447733E-5</v>
+      </c>
+      <c r="W5">
+        <v>-3.081932486474658E-4</v>
+      </c>
+      <c r="X5">
+        <v>-1.7606256040335013E-4</v>
+      </c>
+      <c r="Y5">
+        <v>-3.0107671205607648E-4</v>
+      </c>
+      <c r="Z5">
+        <v>-1.0939563209666459E-4</v>
+      </c>
+      <c r="AA5">
+        <v>-1.331735477366203E-4</v>
+      </c>
+      <c r="AB5">
+        <v>1.694723483821537E-5</v>
+      </c>
+      <c r="AC5">
+        <v>4.0947001273585132E-5</v>
+      </c>
+      <c r="AD5">
+        <v>-1.3713462561812292E-4</v>
+      </c>
+      <c r="AE5">
+        <v>-1.0348626823454951E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>140</v>
       </c>
-      <c r="B5">
-        <v>3.8164286043407505E-2</v>
-      </c>
-      <c r="C5">
-        <v>-6.4303046240298534E-5</v>
-      </c>
-      <c r="D5">
-        <v>-3.6442377490672836E-5</v>
-      </c>
-      <c r="E5">
-        <v>3.6658017114194856E-7</v>
-      </c>
-      <c r="F5">
-        <v>1.6590652019055131E-3</v>
-      </c>
-      <c r="G5">
-        <v>9.0184006262365268E-4</v>
-      </c>
-      <c r="H5">
-        <v>9.0655817511633638E-4</v>
-      </c>
-      <c r="I5">
-        <v>9.1481508507906795E-4</v>
-      </c>
-      <c r="J5">
-        <v>4.4986596422152103E-5</v>
-      </c>
-      <c r="K5">
-        <v>2.2501693452783619E-5</v>
-      </c>
-      <c r="L5">
-        <v>3.3462662798225787E-5</v>
-      </c>
-      <c r="M5">
-        <v>1.4155119382748416E-4</v>
-      </c>
-      <c r="N5">
-        <v>1.2214729502866921E-4</v>
-      </c>
-      <c r="O5">
-        <v>6.5743500900952251E-5</v>
-      </c>
-      <c r="P5">
-        <v>1.1720546849692921E-4</v>
-      </c>
-      <c r="Q5">
-        <v>1.3092392334212356E-4</v>
-      </c>
-      <c r="R5">
-        <v>1.3371067786930061E-4</v>
-      </c>
-      <c r="S5">
-        <v>1.6923669991883002E-4</v>
-      </c>
-      <c r="T5">
-        <v>4.633832356845624E-6</v>
-      </c>
-      <c r="U5">
-        <v>-3.7567582713760499E-5</v>
-      </c>
-      <c r="V5">
-        <v>3.3151961497185975E-5</v>
-      </c>
-      <c r="W5">
-        <v>-1.8975529583016191E-4</v>
-      </c>
-      <c r="X5">
-        <v>-7.8968453276156701E-5</v>
-      </c>
-      <c r="Y5">
-        <v>-1.9398603687048366E-4</v>
-      </c>
-      <c r="Z5">
-        <v>-3.7384455852120123E-5</v>
-      </c>
-      <c r="AA5">
-        <v>-6.485532149175733E-5</v>
-      </c>
-      <c r="AB5">
-        <v>1.1784496595996078E-5</v>
-      </c>
-      <c r="AC5">
-        <v>2.3783655110205374E-5</v>
-      </c>
-      <c r="AD5">
-        <v>-9.8136800156383626E-5</v>
-      </c>
-      <c r="AE5">
-        <v>-3.9994973767245142E-4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:32">
-      <c r="A6" t="s">
+      <c r="B6">
+        <v>-0.21706426048120772</v>
+      </c>
+      <c r="C6">
+        <v>-7.187950206726082E-5</v>
+      </c>
+      <c r="D6">
+        <v>-8.4401658687695811E-5</v>
+      </c>
+      <c r="E6">
+        <v>9.5922400501194719E-7</v>
+      </c>
+      <c r="F6">
+        <v>1.5166073304720728E-3</v>
+      </c>
+      <c r="G6">
+        <v>2.3659711475815235E-3</v>
+      </c>
+      <c r="H6">
+        <v>1.8066874296418906E-3</v>
+      </c>
+      <c r="I6">
+        <v>1.912773266809075E-3</v>
+      </c>
+      <c r="J6">
+        <v>-8.6458699535512651E-5</v>
+      </c>
+      <c r="K6">
+        <v>-3.4943169851808786E-6</v>
+      </c>
+      <c r="L6">
+        <v>9.4524021622398172E-5</v>
+      </c>
+      <c r="M6">
+        <v>1.5361189816867854E-4</v>
+      </c>
+      <c r="N6">
+        <v>6.0919719026095002E-5</v>
+      </c>
+      <c r="O6">
+        <v>1.3546321197635463E-4</v>
+      </c>
+      <c r="P6">
+        <v>2.733657829024129E-4</v>
+      </c>
+      <c r="Q6">
+        <v>1.9637764861041781E-4</v>
+      </c>
+      <c r="R6">
+        <v>1.880342726022239E-4</v>
+      </c>
+      <c r="S6">
+        <v>1.152497997193721E-4</v>
+      </c>
+      <c r="T6">
+        <v>2.4972422748790703E-4</v>
+      </c>
+      <c r="U6">
+        <v>5.1513894077083683E-6</v>
+      </c>
+      <c r="V6">
+        <v>4.3558316387817028E-4</v>
+      </c>
+      <c r="W6">
+        <v>-6.9235972234143531E-5</v>
+      </c>
+      <c r="X6">
+        <v>-9.7832769205158208E-5</v>
+      </c>
+      <c r="Y6">
+        <v>-3.3149888096373447E-4</v>
+      </c>
+      <c r="Z6">
+        <v>-1.2579670357068992E-4</v>
+      </c>
+      <c r="AA6">
+        <v>-7.9877415246777645E-5</v>
+      </c>
+      <c r="AB6">
+        <v>3.6166173939713148E-6</v>
+      </c>
+      <c r="AC6">
+        <v>-1.2555785979818804E-5</v>
+      </c>
+      <c r="AD6">
+        <v>-1.4591666702075E-5</v>
+      </c>
+      <c r="AE6">
+        <v>-3.7806029081242627E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>141</v>
       </c>
-      <c r="B6">
-        <v>-2.6366916260715387E-2</v>
-      </c>
-      <c r="C6">
-        <v>-3.3717804010631722E-5</v>
-      </c>
-      <c r="D6">
-        <v>-7.7171145165781234E-5</v>
-      </c>
-      <c r="E6">
-        <v>9.1892115794131151E-7</v>
-      </c>
-      <c r="F6">
-        <v>9.0184006262365268E-4</v>
-      </c>
-      <c r="G6">
-        <v>1.6985941513318131E-3</v>
-      </c>
-      <c r="H6">
-        <v>1.2137398695128184E-3</v>
-      </c>
-      <c r="I6">
-        <v>1.2864201530168086E-3</v>
-      </c>
-      <c r="J6">
-        <v>-3.4627443719184712E-5</v>
-      </c>
-      <c r="K6">
-        <v>6.5111891789375587E-6</v>
-      </c>
-      <c r="L6">
-        <v>1.1029991119620118E-4</v>
-      </c>
-      <c r="M6">
-        <v>1.2553218671859626E-4</v>
-      </c>
-      <c r="N6">
-        <v>6.0489518636504236E-5</v>
-      </c>
-      <c r="O6">
-        <v>8.2045950379691494E-5</v>
-      </c>
-      <c r="P6">
-        <v>1.7627219912544074E-4</v>
-      </c>
-      <c r="Q6">
-        <v>1.6470059933745883E-4</v>
-      </c>
-      <c r="R6">
-        <v>1.5349207192037477E-4</v>
-      </c>
-      <c r="S6">
-        <v>1.1665676137959438E-4</v>
-      </c>
-      <c r="T6">
-        <v>1.6129866759081196E-4</v>
-      </c>
-      <c r="U6">
-        <v>8.5479751965448069E-6</v>
-      </c>
-      <c r="V6">
-        <v>2.3192712998419874E-4</v>
-      </c>
-      <c r="W6">
-        <v>-1.1355042673660174E-4</v>
-      </c>
-      <c r="X6">
-        <v>-3.2526945431742727E-5</v>
-      </c>
-      <c r="Y6">
-        <v>-2.2297703095891939E-4</v>
-      </c>
-      <c r="Z6">
-        <v>-5.8034242335617983E-5</v>
-      </c>
-      <c r="AA6">
-        <v>-2.3707193679087747E-5</v>
-      </c>
-      <c r="AB6">
-        <v>2.2341667609787773E-6</v>
-      </c>
-      <c r="AC6">
-        <v>-1.556405180185544E-5</v>
-      </c>
-      <c r="AD6">
-        <v>-3.7023769566326681E-5</v>
-      </c>
-      <c r="AE6">
-        <v>3.0544787027448174E-7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32">
-      <c r="A7" t="s">
+      <c r="B7">
+        <v>-0.36568620072215963</v>
+      </c>
+      <c r="C7">
+        <v>-1.3269611063974521E-4</v>
+      </c>
+      <c r="D7">
+        <v>-9.7555170452453838E-5</v>
+      </c>
+      <c r="E7">
+        <v>1.1219869335755347E-6</v>
+      </c>
+      <c r="F7">
+        <v>1.5213077046322635E-3</v>
+      </c>
+      <c r="G7">
+        <v>1.8066874296418906E-3</v>
+      </c>
+      <c r="H7">
+        <v>2.5511931343410793E-3</v>
+      </c>
+      <c r="I7">
+        <v>2.0220597850299001E-3</v>
+      </c>
+      <c r="J7">
+        <v>-2.7753419312520004E-4</v>
+      </c>
+      <c r="K7">
+        <v>-1.6476777802330861E-4</v>
+      </c>
+      <c r="L7">
+        <v>-5.0234333318126484E-7</v>
+      </c>
+      <c r="M7">
+        <v>5.9653591794744725E-5</v>
+      </c>
+      <c r="N7">
+        <v>-2.2010452477566335E-5</v>
+      </c>
+      <c r="O7">
+        <v>2.2653211448246744E-6</v>
+      </c>
+      <c r="P7">
+        <v>4.0518103321851253E-4</v>
+      </c>
+      <c r="Q7">
+        <v>2.1542570023287645E-4</v>
+      </c>
+      <c r="R7">
+        <v>1.7108897579237511E-4</v>
+      </c>
+      <c r="S7">
+        <v>5.863498425421844E-5</v>
+      </c>
+      <c r="T7">
+        <v>3.0349580914754392E-4</v>
+      </c>
+      <c r="U7">
+        <v>6.7999461500486383E-5</v>
+      </c>
+      <c r="V7">
+        <v>3.9634687931812195E-4</v>
+      </c>
+      <c r="W7">
+        <v>4.3836331728432592E-4</v>
+      </c>
+      <c r="X7">
+        <v>-5.3354243084324552E-5</v>
+      </c>
+      <c r="Y7">
+        <v>-3.2248880425095024E-4</v>
+      </c>
+      <c r="Z7">
+        <v>-3.2639608411788896E-5</v>
+      </c>
+      <c r="AA7">
+        <v>-6.9786703108874032E-7</v>
+      </c>
+      <c r="AB7">
+        <v>-8.2610142715344879E-6</v>
+      </c>
+      <c r="AC7">
+        <v>-1.8984855570219436E-4</v>
+      </c>
+      <c r="AD7">
+        <v>-6.9276175814951497E-5</v>
+      </c>
+      <c r="AE7">
+        <v>2.1617339996878303E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>142</v>
       </c>
-      <c r="B7">
-        <v>-0.1412326917223018</v>
-      </c>
-      <c r="C7">
-        <v>-7.1264900915272831E-5</v>
-      </c>
-      <c r="D7">
-        <v>-8.5115021233651204E-5</v>
-      </c>
-      <c r="E7">
-        <v>1.0387203732618173E-6</v>
-      </c>
-      <c r="F7">
-        <v>9.0655817511633638E-4</v>
-      </c>
-      <c r="G7">
-        <v>1.2137398695128184E-3</v>
-      </c>
-      <c r="H7">
-        <v>1.9344190368534833E-3</v>
-      </c>
-      <c r="I7">
-        <v>1.425994115906768E-3</v>
-      </c>
-      <c r="J7">
-        <v>-1.9152811476413396E-4</v>
-      </c>
-      <c r="K7">
-        <v>-1.1315480613071804E-4</v>
-      </c>
-      <c r="L7">
-        <v>3.6541936967871713E-5</v>
-      </c>
-      <c r="M7">
-        <v>7.4948954359225275E-5</v>
-      </c>
-      <c r="N7">
-        <v>2.874736933178911E-6</v>
-      </c>
-      <c r="O7">
-        <v>-2.7286016524996001E-5</v>
-      </c>
-      <c r="P7">
-        <v>2.8911874426979352E-4</v>
-      </c>
-      <c r="Q7">
-        <v>2.0847097261110883E-4</v>
-      </c>
-      <c r="R7">
-        <v>1.7897948197317308E-4</v>
-      </c>
-      <c r="S7">
-        <v>1.0205573525622727E-4</v>
-      </c>
-      <c r="T7">
-        <v>2.2139011106465657E-4</v>
-      </c>
-      <c r="U7">
-        <v>4.5906879073268494E-5</v>
-      </c>
-      <c r="V7">
-        <v>1.9902126839789228E-4</v>
-      </c>
-      <c r="W7">
-        <v>3.4604513079523511E-4</v>
-      </c>
-      <c r="X7">
-        <v>1.6224637346015065E-5</v>
-      </c>
-      <c r="Y7">
-        <v>-2.106216036252749E-4</v>
-      </c>
-      <c r="Z7">
-        <v>1.4852110634760762E-5</v>
-      </c>
-      <c r="AA7">
-        <v>4.2651387857235751E-5</v>
-      </c>
-      <c r="AB7">
-        <v>-6.1673027232176443E-6</v>
-      </c>
-      <c r="AC7">
-        <v>-1.3583845915210804E-4</v>
-      </c>
-      <c r="AD7">
-        <v>-4.7465408911690655E-5</v>
-      </c>
-      <c r="AE7">
-        <v>2.4993096846078822E-4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:32">
-      <c r="A8" t="s">
-        <v>143</v>
-      </c>
       <c r="B8">
-        <v>-0.25873754781559072</v>
+        <v>-0.50461340820193346</v>
       </c>
       <c r="C8">
-        <v>-9.1831321913522472E-5</v>
+        <v>-1.5382630073330097E-4</v>
       </c>
       <c r="D8">
-        <v>-1.1065634984404126E-4</v>
+        <v>-1.162377089369244E-4</v>
       </c>
       <c r="E8">
-        <v>1.2856962133687515E-6</v>
+        <v>1.2912676080866109E-6</v>
       </c>
       <c r="F8">
-        <v>9.1481508507906795E-4</v>
+        <v>1.5410849469485795E-3</v>
       </c>
       <c r="G8">
-        <v>1.2864201530168086E-3</v>
+        <v>1.912773266809075E-3</v>
       </c>
       <c r="H8">
-        <v>1.425994115906768E-3</v>
+        <v>2.0220597850299001E-3</v>
       </c>
       <c r="I8">
-        <v>2.5196010148527005E-3</v>
+        <v>3.2539823613166202E-3</v>
       </c>
       <c r="J8">
-        <v>-6.5176697102562581E-4</v>
+        <v>-8.7572579482145653E-4</v>
       </c>
       <c r="K8">
-        <v>-1.4449809407194499E-4</v>
+        <v>-2.1938862671640392E-4</v>
       </c>
       <c r="L8">
-        <v>3.1353262507201416E-4</v>
+        <v>3.7500700432586043E-4</v>
       </c>
       <c r="M8">
-        <v>1.2338015387035374E-4</v>
+        <v>1.0606502406191047E-4</v>
       </c>
       <c r="N8">
-        <v>7.9130523395808881E-5</v>
+        <v>6.5020787604560344E-5</v>
       </c>
       <c r="O8">
-        <v>9.0766804237804694E-5</v>
+        <v>1.3901657449815722E-4</v>
       </c>
       <c r="P8">
-        <v>1.5550999559176015E-4</v>
+        <v>2.1231329251760397E-4</v>
       </c>
       <c r="Q8">
-        <v>2.1881178103113255E-4</v>
+        <v>2.2216103652082249E-4</v>
       </c>
       <c r="R8">
-        <v>1.4432739518061068E-4</v>
+        <v>1.1515424446067612E-4</v>
       </c>
       <c r="S8">
-        <v>6.83991875949283E-5</v>
+        <v>1.4460491232027099E-5</v>
       </c>
       <c r="T8">
-        <v>2.9353820367117431E-4</v>
+        <v>3.9879319470134407E-4</v>
       </c>
       <c r="U8">
-        <v>1.2664412991004792E-4</v>
+        <v>1.5848216938639227E-4</v>
       </c>
       <c r="V8">
-        <v>2.9726748617773456E-4</v>
+        <v>5.34280546520854E-4</v>
       </c>
       <c r="W8">
-        <v>1.3849610429641701E-4</v>
+        <v>1.3256023061488417E-4</v>
       </c>
       <c r="X8">
-        <v>3.6752668362857954E-5</v>
+        <v>-3.1902653852359904E-5</v>
       </c>
       <c r="Y8">
-        <v>-2.4438259398956974E-4</v>
+        <v>-3.4771977019395491E-4</v>
       </c>
       <c r="Z8">
-        <v>-6.6164674592822999E-6</v>
+        <v>-6.5881241055797287E-5</v>
       </c>
       <c r="AA8">
-        <v>4.0925290338005731E-5</v>
+        <v>-4.3654065604346607E-6</v>
       </c>
       <c r="AB8">
-        <v>-8.5722466681701392E-7</v>
+        <v>-3.2433744424497664E-7</v>
       </c>
       <c r="AC8">
-        <v>-1.3496086679268011E-4</v>
+        <v>-1.9155221398255593E-4</v>
       </c>
       <c r="AD8">
-        <v>-5.5003994205833398E-5</v>
+        <v>-1.0723836424498037E-4</v>
       </c>
       <c r="AE8">
-        <v>6.6637987152668267E-4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:32">
+        <v>4.3660119300894287E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>38</v>
       </c>
       <c r="B9">
-        <v>-0.3489509439120948</v>
+        <v>-0.25595064332058332</v>
       </c>
       <c r="C9">
-        <v>-5.987724315022452E-6</v>
+        <v>-4.7458831285795264E-5</v>
       </c>
       <c r="D9">
-        <v>-3.5374656637009554E-6</v>
+        <v>-4.1146056927678326E-5</v>
       </c>
       <c r="E9">
-        <v>1.4937566465018588E-7</v>
+        <v>5.6690268676859709E-7</v>
       </c>
       <c r="F9">
-        <v>4.4986596422152103E-5</v>
+        <v>2.7934752451994397E-5</v>
       </c>
       <c r="G9">
-        <v>-3.4627443719184712E-5</v>
+        <v>-8.6458699535512651E-5</v>
       </c>
       <c r="H9">
-        <v>-1.9152811476413396E-4</v>
+        <v>-2.7753419312520004E-4</v>
       </c>
       <c r="I9">
-        <v>-6.5176697102562581E-4</v>
+        <v>-8.7572579482145653E-4</v>
       </c>
       <c r="J9">
-        <v>3.2633688367446193E-3</v>
+        <v>3.8589683910016251E-3</v>
       </c>
       <c r="K9">
-        <v>1.0001473607168597E-3</v>
+        <v>1.3817223330571113E-3</v>
       </c>
       <c r="L9">
-        <v>-1.7526813258139708E-4</v>
+        <v>-1.1710197234285406E-4</v>
       </c>
       <c r="M9">
-        <v>-3.4052050712153089E-6</v>
+        <v>2.7479589575017888E-5</v>
       </c>
       <c r="N9">
-        <v>-1.1063642559056458E-5</v>
+        <v>-2.928418085249376E-5</v>
       </c>
       <c r="O9">
-        <v>8.4010513370558605E-5</v>
+        <v>6.7048732747093442E-5</v>
       </c>
       <c r="P9">
-        <v>1.9598999177860272E-4</v>
+        <v>2.3702365630399612E-4</v>
       </c>
       <c r="Q9">
-        <v>-3.1003138934719294E-5</v>
+        <v>-6.8032426538008935E-5</v>
       </c>
       <c r="R9">
-        <v>5.4419788064214583E-6</v>
+        <v>1.5368570337665414E-5</v>
       </c>
       <c r="S9">
-        <v>-1.7650634335300992E-4</v>
+        <v>-2.0920434319584612E-4</v>
       </c>
       <c r="T9">
-        <v>-9.977428755277163E-5</v>
+        <v>-1.1055485185043406E-4</v>
       </c>
       <c r="U9">
-        <v>-2.8258033143757754E-5</v>
+        <v>-1.4748549427044742E-5</v>
       </c>
       <c r="V9">
-        <v>-8.0664229109559258E-5</v>
+        <v>-1.2088789922406381E-4</v>
       </c>
       <c r="W9">
-        <v>5.2303985170101656E-4</v>
+        <v>6.9251911281007069E-4</v>
       </c>
       <c r="X9">
-        <v>2.9775535828373419E-4</v>
+        <v>4.4376345787811808E-4</v>
       </c>
       <c r="Y9">
-        <v>3.0809896719448361E-4</v>
+        <v>4.066727667590843E-4</v>
       </c>
       <c r="Z9">
-        <v>2.8895195224082104E-4</v>
+        <v>3.8485082840294504E-4</v>
       </c>
       <c r="AA9">
-        <v>9.090156829715211E-5</v>
+        <v>1.5582334494852336E-4</v>
       </c>
       <c r="AB9">
-        <v>-5.1732611831501141E-6</v>
+        <v>-7.6960201914972919E-6</v>
       </c>
       <c r="AC9">
-        <v>-4.398657467689073E-4</v>
+        <v>-5.6620543745716507E-4</v>
       </c>
       <c r="AD9">
-        <v>-1.3762009352070827E-4</v>
+        <v>-1.1683216362163849E-4</v>
       </c>
       <c r="AE9">
-        <v>-1.0254655572243952E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:32">
+        <v>-4.7877964835858094E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B10">
+        <v>-3.5700455755832479E-2</v>
+      </c>
+      <c r="C10">
+        <v>-3.0723473290725442E-5</v>
+      </c>
+      <c r="D10">
+        <v>-6.6156180749908579E-5</v>
+      </c>
+      <c r="E10">
+        <v>7.5405900747580145E-7</v>
+      </c>
+      <c r="F10">
+        <v>3.9248537656565836E-5</v>
+      </c>
+      <c r="G10">
+        <v>-3.4943169851808786E-6</v>
+      </c>
+      <c r="H10">
+        <v>-1.6476777802330861E-4</v>
+      </c>
+      <c r="I10">
+        <v>-2.1938862671640392E-4</v>
+      </c>
+      <c r="J10">
+        <v>1.3817223330571113E-3</v>
+      </c>
+      <c r="K10">
+        <v>1.4750019413420222E-3</v>
+      </c>
+      <c r="L10">
+        <v>-1.0359419258727174E-4</v>
+      </c>
+      <c r="M10">
+        <v>-1.4233305931984956E-4</v>
+      </c>
+      <c r="N10">
+        <v>-1.5928580166779785E-4</v>
+      </c>
+      <c r="O10">
+        <v>-1.2883428054886174E-4</v>
+      </c>
+      <c r="P10">
+        <v>2.4713572867814901E-4</v>
+      </c>
+      <c r="Q10">
+        <v>1.989443605494481E-4</v>
+      </c>
+      <c r="R10">
+        <v>2.3816960682487623E-4</v>
+      </c>
+      <c r="S10">
+        <v>9.2018236739481411E-5</v>
+      </c>
+      <c r="T10">
+        <v>-3.5910754840179932E-5</v>
+      </c>
+      <c r="U10">
+        <v>5.7540319575175623E-5</v>
+      </c>
+      <c r="V10">
+        <v>-5.5723239792774994E-5</v>
+      </c>
+      <c r="W10">
+        <v>2.3174435537755071E-5</v>
+      </c>
+      <c r="X10">
+        <v>2.3302607856801451E-4</v>
+      </c>
+      <c r="Y10">
+        <v>2.0065735980076264E-4</v>
+      </c>
+      <c r="Z10">
+        <v>1.8288271732237114E-4</v>
+      </c>
+      <c r="AA10">
+        <v>1.3691074988826142E-4</v>
+      </c>
+      <c r="AB10">
+        <v>-3.4323020929329137E-6</v>
+      </c>
+      <c r="AC10">
+        <v>-2.4733497036702446E-4</v>
+      </c>
+      <c r="AD10">
+        <v>1.0013024798964708E-5</v>
+      </c>
+      <c r="AE10">
+        <v>1.077443920858306E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>144</v>
       </c>
-      <c r="B10">
-        <v>-8.47199353113786E-2</v>
-      </c>
-      <c r="C10">
-        <v>-1.3328483118921474E-5</v>
-      </c>
-      <c r="D10">
-        <v>-3.9348946456831273E-5</v>
-      </c>
-      <c r="E10">
-        <v>4.4214369612763746E-7</v>
-      </c>
-      <c r="F10">
-        <v>2.2501693452783619E-5</v>
-      </c>
-      <c r="G10">
-        <v>6.5111891789375587E-6</v>
-      </c>
-      <c r="H10">
-        <v>-1.1315480613071804E-4</v>
-      </c>
-      <c r="I10">
-        <v>-1.4449809407194499E-4</v>
-      </c>
-      <c r="J10">
-        <v>1.0001473607168597E-3</v>
-      </c>
-      <c r="K10">
-        <v>1.0889335585152172E-3</v>
-      </c>
-      <c r="L10">
-        <v>-1.8036281377727906E-4</v>
-      </c>
-      <c r="M10">
-        <v>-1.3377578265353721E-4</v>
-      </c>
-      <c r="N10">
-        <v>-1.2304557289108398E-4</v>
-      </c>
-      <c r="O10">
-        <v>-8.5823281151084003E-5</v>
-      </c>
-      <c r="P10">
-        <v>2.2088924504673683E-4</v>
-      </c>
-      <c r="Q10">
-        <v>1.4486524908681282E-4</v>
-      </c>
-      <c r="R10">
-        <v>1.6993649987777826E-4</v>
-      </c>
-      <c r="S10">
-        <v>6.1313422978955722E-5</v>
-      </c>
-      <c r="T10">
-        <v>-4.1207649299285596E-5</v>
-      </c>
-      <c r="U10">
-        <v>2.7307131884111153E-5</v>
-      </c>
-      <c r="V10">
-        <v>-3.1102998632932113E-5</v>
-      </c>
-      <c r="W10">
-        <v>1.77447529915283E-5</v>
-      </c>
-      <c r="X10">
-        <v>1.3942710095878641E-4</v>
-      </c>
-      <c r="Y10">
-        <v>1.0303767574420278E-4</v>
-      </c>
-      <c r="Z10">
-        <v>1.1747642770499167E-4</v>
-      </c>
-      <c r="AA10">
-        <v>8.3582886629128745E-5</v>
-      </c>
-      <c r="AB10">
-        <v>-5.7771727102739515E-6</v>
-      </c>
-      <c r="AC10">
-        <v>-1.8990250696562612E-4</v>
-      </c>
-      <c r="AD10">
-        <v>-1.133090407421718E-5</v>
-      </c>
-      <c r="AE10">
-        <v>-1.3753554373786733E-5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:32">
-      <c r="A11" t="s">
+      <c r="B11">
+        <v>2.2321220799166968</v>
+      </c>
+      <c r="C11">
+        <v>9.8730768588464084E-5</v>
+      </c>
+      <c r="D11">
+        <v>-9.5167465782157912E-5</v>
+      </c>
+      <c r="E11">
+        <v>8.2237516836211726E-7</v>
+      </c>
+      <c r="F11">
+        <v>1.217788196225131E-4</v>
+      </c>
+      <c r="G11">
+        <v>9.4524021622398172E-5</v>
+      </c>
+      <c r="H11">
+        <v>-5.0234333318126484E-7</v>
+      </c>
+      <c r="I11">
+        <v>3.7500700432586043E-4</v>
+      </c>
+      <c r="J11">
+        <v>-1.1710197234285406E-4</v>
+      </c>
+      <c r="K11">
+        <v>-1.0359419258727174E-4</v>
+      </c>
+      <c r="L11">
+        <v>1.9910406837438506E-2</v>
+      </c>
+      <c r="M11">
+        <v>1.4407237718832511E-2</v>
+      </c>
+      <c r="N11">
+        <v>1.3995037308651094E-2</v>
+      </c>
+      <c r="O11">
+        <v>1.3538582287105657E-2</v>
+      </c>
+      <c r="P11">
+        <v>-5.4258828943432548E-3</v>
+      </c>
+      <c r="Q11">
+        <v>-2.7033439129574913E-3</v>
+      </c>
+      <c r="R11">
+        <v>-2.2067346526645241E-3</v>
+      </c>
+      <c r="S11">
+        <v>-1.9453142079831028E-3</v>
+      </c>
+      <c r="T11">
+        <v>5.6157637895820384E-4</v>
+      </c>
+      <c r="U11">
+        <v>-1.0039786863162009E-4</v>
+      </c>
+      <c r="V11">
+        <v>6.3909363093951621E-5</v>
+      </c>
+      <c r="W11">
+        <v>-3.9253147905845545E-4</v>
+      </c>
+      <c r="X11">
+        <v>-1.3066671515610373E-4</v>
+      </c>
+      <c r="Y11">
+        <v>1.6654965216130607E-5</v>
+      </c>
+      <c r="Z11">
+        <v>7.1312518832228507E-5</v>
+      </c>
+      <c r="AA11">
+        <v>-5.5244422169377881E-6</v>
+      </c>
+      <c r="AB11">
+        <v>-7.5864359901333647E-6</v>
+      </c>
+      <c r="AC11">
+        <v>-1.352212215391356E-4</v>
+      </c>
+      <c r="AD11">
+        <v>1.6773525165006712E-4</v>
+      </c>
+      <c r="AE11">
+        <v>-9.2545735718016706E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>145</v>
       </c>
-      <c r="B11">
-        <v>2.1175721247486119</v>
-      </c>
-      <c r="C11">
-        <v>9.8646990294413343E-5</v>
-      </c>
-      <c r="D11">
-        <v>-5.2485051725905761E-5</v>
-      </c>
-      <c r="E11">
-        <v>3.4820558710616764E-7</v>
-      </c>
-      <c r="F11">
-        <v>3.3462662798225787E-5</v>
-      </c>
-      <c r="G11">
-        <v>1.1029991119620118E-4</v>
-      </c>
-      <c r="H11">
-        <v>3.6541936967871713E-5</v>
-      </c>
-      <c r="I11">
-        <v>3.1353262507201416E-4</v>
-      </c>
-      <c r="J11">
-        <v>-1.7526813258139708E-4</v>
-      </c>
-      <c r="K11">
-        <v>-1.8036281377727906E-4</v>
-      </c>
-      <c r="L11">
-        <v>1.6894369301991397E-2</v>
-      </c>
-      <c r="M11">
-        <v>1.3403930363503173E-2</v>
-      </c>
-      <c r="N11">
-        <v>1.3005151335208749E-2</v>
-      </c>
-      <c r="O11">
-        <v>1.2571821981040994E-2</v>
-      </c>
-      <c r="P11">
-        <v>-4.4244818270620274E-3</v>
-      </c>
-      <c r="Q11">
-        <v>-2.5764756763927647E-3</v>
-      </c>
-      <c r="R11">
-        <v>-2.1745478932736857E-3</v>
-      </c>
-      <c r="S11">
-        <v>-1.9573601774791776E-3</v>
-      </c>
-      <c r="T11">
-        <v>3.311174462125248E-4</v>
-      </c>
-      <c r="U11">
-        <v>-1.0754834117305012E-4</v>
-      </c>
-      <c r="V11">
-        <v>7.0365965331497946E-5</v>
-      </c>
-      <c r="W11">
-        <v>-3.0904118410029591E-4</v>
-      </c>
-      <c r="X11">
-        <v>-1.3630291576652577E-4</v>
-      </c>
-      <c r="Y11">
-        <v>-5.9070512075283539E-5</v>
-      </c>
-      <c r="Z11">
-        <v>-1.1224814378934427E-5</v>
-      </c>
-      <c r="AA11">
-        <v>-5.8813861728965068E-5</v>
-      </c>
-      <c r="AB11">
-        <v>-8.977548393304209E-6</v>
-      </c>
-      <c r="AC11">
-        <v>-7.6200477971504006E-5</v>
-      </c>
-      <c r="AD11">
-        <v>1.7014686825668102E-4</v>
-      </c>
-      <c r="AE11">
-        <v>-8.9836067671225806E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:32">
-      <c r="A12" t="s">
+      <c r="B12">
+        <v>1.9459097618675349</v>
+      </c>
+      <c r="C12">
+        <v>1.6221341009621689E-4</v>
+      </c>
+      <c r="D12">
+        <v>-1.0133021439160186E-4</v>
+      </c>
+      <c r="E12">
+        <v>8.2552983562765553E-7</v>
+      </c>
+      <c r="F12">
+        <v>2.5226903138045667E-4</v>
+      </c>
+      <c r="G12">
+        <v>1.5361189816867854E-4</v>
+      </c>
+      <c r="H12">
+        <v>5.9653591794744725E-5</v>
+      </c>
+      <c r="I12">
+        <v>1.0606502406191047E-4</v>
+      </c>
+      <c r="J12">
+        <v>2.7479589575017888E-5</v>
+      </c>
+      <c r="K12">
+        <v>-1.4233305931984956E-4</v>
+      </c>
+      <c r="L12">
+        <v>1.4407237718832511E-2</v>
+      </c>
+      <c r="M12">
+        <v>1.5369310356729971E-2</v>
+      </c>
+      <c r="N12">
+        <v>1.4207944347316672E-2</v>
+      </c>
+      <c r="O12">
+        <v>1.3698834053576329E-2</v>
+      </c>
+      <c r="P12">
+        <v>-2.6715817334385687E-3</v>
+      </c>
+      <c r="Q12">
+        <v>-2.9746886800113524E-3</v>
+      </c>
+      <c r="R12">
+        <v>-2.2629080695409664E-3</v>
+      </c>
+      <c r="S12">
+        <v>-2.0215483297175343E-3</v>
+      </c>
+      <c r="T12">
+        <v>3.6523844799556766E-4</v>
+      </c>
+      <c r="U12">
+        <v>-1.620488069139208E-4</v>
+      </c>
+      <c r="V12">
+        <v>-5.1587986519865004E-5</v>
+      </c>
+      <c r="W12">
+        <v>-4.0711953044825135E-4</v>
+      </c>
+      <c r="X12">
+        <v>-1.5971602283673263E-4</v>
+      </c>
+      <c r="Y12">
+        <v>-8.6015871867068175E-5</v>
+      </c>
+      <c r="Z12">
+        <v>-1.140308966839196E-4</v>
+      </c>
+      <c r="AA12">
+        <v>-1.7435334149010955E-4</v>
+      </c>
+      <c r="AB12">
+        <v>2.6070427339936278E-6</v>
+      </c>
+      <c r="AC12">
+        <v>-2.3454238779708689E-5</v>
+      </c>
+      <c r="AD12">
+        <v>1.1786390440446555E-4</v>
+      </c>
+      <c r="AE12">
+        <v>-9.08382834147008E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>146</v>
       </c>
-      <c r="B12">
-        <v>1.8832739168384429</v>
-      </c>
-      <c r="C12">
-        <v>1.4263401436300359E-4</v>
-      </c>
-      <c r="D12">
-        <v>-7.5999593783590401E-5</v>
-      </c>
-      <c r="E12">
-        <v>5.5350734514542046E-7</v>
-      </c>
-      <c r="F12">
-        <v>1.4155119382748416E-4</v>
-      </c>
-      <c r="G12">
-        <v>1.2553218671859626E-4</v>
-      </c>
-      <c r="H12">
-        <v>7.4948954359225275E-5</v>
-      </c>
-      <c r="I12">
-        <v>1.2338015387035374E-4</v>
-      </c>
-      <c r="J12">
-        <v>-3.4052050712153089E-6</v>
-      </c>
-      <c r="K12">
-        <v>-1.3377578265353721E-4</v>
-      </c>
-      <c r="L12">
-        <v>1.3403930363503173E-2</v>
-      </c>
-      <c r="M12">
-        <v>1.4093109960082392E-2</v>
-      </c>
-      <c r="N12">
-        <v>1.3161039737031109E-2</v>
-      </c>
-      <c r="O12">
-        <v>1.2689397586381957E-2</v>
-      </c>
-      <c r="P12">
-        <v>-2.5011292320817344E-3</v>
-      </c>
-      <c r="Q12">
-        <v>-2.7761717288251578E-3</v>
-      </c>
-      <c r="R12">
-        <v>-2.21864368362451E-3</v>
-      </c>
-      <c r="S12">
-        <v>-1.9972783221043448E-3</v>
-      </c>
-      <c r="T12">
-        <v>2.4073837622251814E-4</v>
-      </c>
-      <c r="U12">
-        <v>-1.5782340717508577E-4</v>
-      </c>
-      <c r="V12">
-        <v>-4.5434826840054817E-5</v>
-      </c>
-      <c r="W12">
-        <v>-3.8209891664620007E-4</v>
-      </c>
-      <c r="X12">
-        <v>-1.2584552875939694E-4</v>
-      </c>
-      <c r="Y12">
-        <v>-6.1100203847705474E-5</v>
-      </c>
-      <c r="Z12">
-        <v>-9.167170702389067E-5</v>
-      </c>
-      <c r="AA12">
-        <v>-1.2571603767109416E-4</v>
-      </c>
-      <c r="AB12">
-        <v>1.4834233938660515E-6</v>
-      </c>
-      <c r="AC12">
-        <v>-1.2258330062727467E-5</v>
-      </c>
-      <c r="AD12">
-        <v>6.808808657556455E-5</v>
-      </c>
-      <c r="AE12">
-        <v>-8.591405224673436E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:32">
-      <c r="A13" t="s">
+      <c r="B13">
+        <v>1.4168260877327958</v>
+      </c>
+      <c r="C13">
+        <v>1.9310326788891442E-4</v>
+      </c>
+      <c r="D13">
+        <v>-1.0299788047986097E-4</v>
+      </c>
+      <c r="E13">
+        <v>8.5836541674277931E-7</v>
+      </c>
+      <c r="F13">
+        <v>2.1942304735767014E-4</v>
+      </c>
+      <c r="G13">
+        <v>6.0919719026095002E-5</v>
+      </c>
+      <c r="H13">
+        <v>-2.2010452477566335E-5</v>
+      </c>
+      <c r="I13">
+        <v>6.5020787604560344E-5</v>
+      </c>
+      <c r="J13">
+        <v>-2.928418085249376E-5</v>
+      </c>
+      <c r="K13">
+        <v>-1.5928580166779785E-4</v>
+      </c>
+      <c r="L13">
+        <v>1.3995037308651094E-2</v>
+      </c>
+      <c r="M13">
+        <v>1.4207944347316672E-2</v>
+      </c>
+      <c r="N13">
+        <v>1.4699350763183495E-2</v>
+      </c>
+      <c r="O13">
+        <v>1.3795847779320743E-2</v>
+      </c>
+      <c r="P13">
+        <v>-2.1034248263356297E-3</v>
+      </c>
+      <c r="Q13">
+        <v>-2.1930339007264787E-3</v>
+      </c>
+      <c r="R13">
+        <v>-2.4856633834653627E-3</v>
+      </c>
+      <c r="S13">
+        <v>-2.1794689528326634E-3</v>
+      </c>
+      <c r="T13">
+        <v>7.0673722817446026E-5</v>
+      </c>
+      <c r="U13">
+        <v>-1.2790256894263871E-4</v>
+      </c>
+      <c r="V13">
+        <v>1.2177650956829607E-5</v>
+      </c>
+      <c r="W13">
+        <v>-1.5917070160801575E-4</v>
+      </c>
+      <c r="X13">
+        <v>-3.3127018255980196E-4</v>
+      </c>
+      <c r="Y13">
+        <v>-9.5223783296832093E-5</v>
+      </c>
+      <c r="Z13">
+        <v>-1.7650665751156201E-4</v>
+      </c>
+      <c r="AA13">
+        <v>-2.3802080193720395E-4</v>
+      </c>
+      <c r="AB13">
+        <v>-5.716105021892127E-7</v>
+      </c>
+      <c r="AC13">
+        <v>2.4442497780041705E-4</v>
+      </c>
+      <c r="AD13">
+        <v>1.3247412823989531E-4</v>
+      </c>
+      <c r="AE13">
+        <v>-8.8847384668825392E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>147</v>
       </c>
-      <c r="B13">
-        <v>1.4046335880299854</v>
-      </c>
-      <c r="C13">
-        <v>1.5306324128853643E-4</v>
-      </c>
-      <c r="D13">
-        <v>-9.0903207386419473E-5</v>
-      </c>
-      <c r="E13">
-        <v>7.4644683505220139E-7</v>
-      </c>
-      <c r="F13">
-        <v>1.2214729502866921E-4</v>
-      </c>
-      <c r="G13">
-        <v>6.0489518636504236E-5</v>
-      </c>
-      <c r="H13">
-        <v>2.874736933178911E-6</v>
-      </c>
-      <c r="I13">
-        <v>7.9130523395808881E-5</v>
-      </c>
-      <c r="J13">
-        <v>-1.1063642559056458E-5</v>
-      </c>
-      <c r="K13">
-        <v>-1.2304557289108398E-4</v>
-      </c>
-      <c r="L13">
-        <v>1.3005151335208749E-2</v>
-      </c>
-      <c r="M13">
-        <v>1.3161039737031109E-2</v>
-      </c>
-      <c r="N13">
-        <v>1.3530960637238191E-2</v>
-      </c>
-      <c r="O13">
-        <v>1.2761520533707927E-2</v>
-      </c>
-      <c r="P13">
-        <v>-2.0653264733763747E-3</v>
-      </c>
-      <c r="Q13">
-        <v>-2.1641653274625896E-3</v>
-      </c>
-      <c r="R13">
-        <v>-2.392558240486598E-3</v>
-      </c>
-      <c r="S13">
-        <v>-2.1226512259165629E-3</v>
-      </c>
-      <c r="T13">
-        <v>2.9010095317662175E-5</v>
-      </c>
-      <c r="U13">
-        <v>-1.112362233726635E-4</v>
-      </c>
-      <c r="V13">
-        <v>9.6684278836339263E-6</v>
-      </c>
-      <c r="W13">
-        <v>-1.9547879688364437E-4</v>
-      </c>
-      <c r="X13">
-        <v>-2.4978679035042269E-4</v>
-      </c>
-      <c r="Y13">
-        <v>-5.6302630728255856E-5</v>
-      </c>
-      <c r="Z13">
-        <v>-1.2887824179376724E-4</v>
-      </c>
-      <c r="AA13">
-        <v>-1.6359080690642855E-4</v>
-      </c>
-      <c r="AB13">
-        <v>-1.3471666021975509E-6</v>
-      </c>
-      <c r="AC13">
-        <v>1.8285504279891756E-4</v>
-      </c>
-      <c r="AD13">
-        <v>8.4348509261520472E-5</v>
-      </c>
-      <c r="AE13">
-        <v>-8.1985229653298384E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:32">
-      <c r="A14" t="s">
+      <c r="B14">
+        <v>0.61061226562032034</v>
+      </c>
+      <c r="C14">
+        <v>1.677883621295305E-4</v>
+      </c>
+      <c r="D14">
+        <v>-7.3005886602247032E-5</v>
+      </c>
+      <c r="E14">
+        <v>6.6321259013278172E-7</v>
+      </c>
+      <c r="F14">
+        <v>1.512158140607259E-4</v>
+      </c>
+      <c r="G14">
+        <v>1.3546321197635463E-4</v>
+      </c>
+      <c r="H14">
+        <v>2.2653211448246744E-6</v>
+      </c>
+      <c r="I14">
+        <v>1.3901657449815722E-4</v>
+      </c>
+      <c r="J14">
+        <v>6.7048732747093442E-5</v>
+      </c>
+      <c r="K14">
+        <v>-1.2883428054886174E-4</v>
+      </c>
+      <c r="L14">
+        <v>1.3538582287105657E-2</v>
+      </c>
+      <c r="M14">
+        <v>1.3698834053576329E-2</v>
+      </c>
+      <c r="N14">
+        <v>1.3795847779320743E-2</v>
+      </c>
+      <c r="O14">
+        <v>1.4576164583724753E-2</v>
+      </c>
+      <c r="P14">
+        <v>-1.7680881069543192E-3</v>
+      </c>
+      <c r="Q14">
+        <v>-1.8675075620414872E-3</v>
+      </c>
+      <c r="R14">
+        <v>-1.9377397887740601E-3</v>
+      </c>
+      <c r="S14">
+        <v>-2.3976084564839629E-3</v>
+      </c>
+      <c r="T14">
+        <v>1.2539294727476795E-5</v>
+      </c>
+      <c r="U14">
+        <v>-4.6307632874614899E-5</v>
+      </c>
+      <c r="V14">
+        <v>8.1733548453058209E-5</v>
+      </c>
+      <c r="W14">
+        <v>-1.758596536063175E-4</v>
+      </c>
+      <c r="X14">
+        <v>-1.7634128199446955E-4</v>
+      </c>
+      <c r="Y14">
+        <v>1.3914613352185128E-4</v>
+      </c>
+      <c r="Z14">
+        <v>2.2686437937832326E-5</v>
+      </c>
+      <c r="AA14">
+        <v>-9.2541808030758427E-5</v>
+      </c>
+      <c r="AB14">
+        <v>-2.7143130047582492E-6</v>
+      </c>
+      <c r="AC14">
+        <v>-3.46251855441463E-4</v>
+      </c>
+      <c r="AD14">
+        <v>7.4156947946352192E-6</v>
+      </c>
+      <c r="AE14">
+        <v>-9.8412104648498977E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>148</v>
       </c>
-      <c r="B14">
-        <v>0.59514183554358824</v>
-      </c>
-      <c r="C14">
-        <v>1.201708415357276E-4</v>
-      </c>
-      <c r="D14">
-        <v>-6.1911960528979973E-5</v>
-      </c>
-      <c r="E14">
-        <v>5.6375642047314191E-7</v>
-      </c>
-      <c r="F14">
-        <v>6.5743500900952251E-5</v>
-      </c>
-      <c r="G14">
-        <v>8.2045950379691494E-5</v>
-      </c>
-      <c r="H14">
-        <v>-2.7286016524996001E-5</v>
-      </c>
-      <c r="I14">
-        <v>9.0766804237804694E-5</v>
-      </c>
-      <c r="J14">
-        <v>8.4010513370558605E-5</v>
-      </c>
-      <c r="K14">
-        <v>-8.5823281151084003E-5</v>
-      </c>
-      <c r="L14">
-        <v>1.2571821981040994E-2</v>
-      </c>
-      <c r="M14">
-        <v>1.2689397586381957E-2</v>
-      </c>
-      <c r="N14">
-        <v>1.2761520533707927E-2</v>
-      </c>
-      <c r="O14">
-        <v>1.3491094409537833E-2</v>
-      </c>
-      <c r="P14">
-        <v>-1.7881777226694648E-3</v>
-      </c>
-      <c r="Q14">
-        <v>-1.862588448260441E-3</v>
-      </c>
-      <c r="R14">
-        <v>-1.92658366826471E-3</v>
-      </c>
-      <c r="S14">
-        <v>-2.310241080770571E-3</v>
-      </c>
-      <c r="T14">
-        <v>-3.9936707021858113E-6</v>
-      </c>
-      <c r="U14">
-        <v>-4.5909044495007963E-5</v>
-      </c>
-      <c r="V14">
-        <v>5.2008404423491651E-5</v>
-      </c>
-      <c r="W14">
-        <v>-1.6295876341354827E-4</v>
-      </c>
-      <c r="X14">
-        <v>-1.3731990757932067E-4</v>
-      </c>
-      <c r="Y14">
-        <v>1.0274417623416359E-4</v>
-      </c>
-      <c r="Z14">
-        <v>2.3840217304413405E-5</v>
-      </c>
-      <c r="AA14">
-        <v>-6.5931270338302162E-5</v>
-      </c>
-      <c r="AB14">
-        <v>-2.5117385245244006E-6</v>
-      </c>
-      <c r="AC14">
-        <v>-2.7143772984526953E-4</v>
-      </c>
-      <c r="AD14">
-        <v>-9.2137557026135316E-6</v>
-      </c>
-      <c r="AE14">
-        <v>-9.1179883159259751E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:32">
-      <c r="A15" t="s">
-        <v>149</v>
-      </c>
       <c r="B15">
-        <v>-4.9657445765041525E-2</v>
+        <v>-9.1979303902375048E-2</v>
       </c>
       <c r="C15">
-        <v>9.5651368701770369E-7</v>
+        <v>-1.1134697861346729E-4</v>
       </c>
       <c r="D15">
-        <v>-7.5911235528036079E-5</v>
+        <v>-1.5781405467501277E-4</v>
       </c>
       <c r="E15">
-        <v>5.9771173087726196E-7</v>
+        <v>1.4449691180721712E-6</v>
       </c>
       <c r="F15">
-        <v>1.1720546849692921E-4</v>
+        <v>2.0031524008061046E-4</v>
       </c>
       <c r="G15">
-        <v>1.7627219912544074E-4</v>
+        <v>2.733657829024129E-4</v>
       </c>
       <c r="H15">
-        <v>2.8911874426979352E-4</v>
+        <v>4.0518103321851253E-4</v>
       </c>
       <c r="I15">
-        <v>1.5550999559176015E-4</v>
+        <v>2.1231329251760397E-4</v>
       </c>
       <c r="J15">
-        <v>1.9598999177860272E-4</v>
+        <v>2.3702365630399612E-4</v>
       </c>
       <c r="K15">
-        <v>2.2088924504673683E-4</v>
+        <v>2.4713572867814901E-4</v>
       </c>
       <c r="L15">
-        <v>-4.4244818270620274E-3</v>
+        <v>-5.4258828943432548E-3</v>
       </c>
       <c r="M15">
-        <v>-2.5011292320817344E-3</v>
+        <v>-2.6715817334385687E-3</v>
       </c>
       <c r="N15">
-        <v>-2.0653264733763747E-3</v>
+        <v>-2.1034248263356297E-3</v>
       </c>
       <c r="O15">
-        <v>-1.7881777226694648E-3</v>
+        <v>-1.7680881069543192E-3</v>
       </c>
       <c r="P15">
-        <v>9.7979361977735026E-3</v>
+        <v>1.3018251153373083E-2</v>
       </c>
       <c r="Q15">
-        <v>5.6275713619170923E-3</v>
+        <v>6.1557258868310157E-3</v>
       </c>
       <c r="R15">
-        <v>5.0885733511922375E-3</v>
+        <v>5.5327093284198688E-3</v>
       </c>
       <c r="S15">
-        <v>4.5292834643768497E-3</v>
+        <v>4.9247163944234453E-3</v>
       </c>
       <c r="T15">
-        <v>-5.6636784738781207E-4</v>
+        <v>-7.8723331224483516E-4</v>
       </c>
       <c r="U15">
-        <v>5.2310398402793387E-5</v>
+        <v>1.3074418166608318E-4</v>
       </c>
       <c r="V15">
-        <v>-6.3147597751554987E-6</v>
+        <v>-5.8443496382440125E-5</v>
       </c>
       <c r="W15">
-        <v>-1.1125863255385768E-3</v>
+        <v>-1.3434065992879475E-3</v>
       </c>
       <c r="X15">
-        <v>9.1428718614407922E-5</v>
+        <v>2.1315218376613039E-4</v>
       </c>
       <c r="Y15">
-        <v>-3.021514773426325E-4</v>
+        <v>-3.7193664471061357E-4</v>
       </c>
       <c r="Z15">
-        <v>1.1134675593166717E-5</v>
+        <v>1.8328977098105325E-5</v>
       </c>
       <c r="AA15">
-        <v>1.8937760688898788E-5</v>
+        <v>6.1232090520007816E-5</v>
       </c>
       <c r="AB15">
-        <v>2.7079636084297921E-5</v>
+        <v>3.0990786475217457E-5</v>
       </c>
       <c r="AC15">
-        <v>2.0923197436312468E-4</v>
+        <v>2.8650797328728895E-4</v>
       </c>
       <c r="AD15">
-        <v>8.7115979236484741E-5</v>
+        <v>9.2597650744020689E-5</v>
       </c>
       <c r="AE15">
-        <v>-1.2342900576065938E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:32">
+        <v>1.3582692193481649E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>34</v>
       </c>
       <c r="B16">
-        <v>2.5744088439049184E-2</v>
+        <v>-9.7674746875918954E-5</v>
       </c>
       <c r="C16">
-        <v>8.5166850015352407E-5</v>
+        <v>5.6602125922851727E-5</v>
       </c>
       <c r="D16">
-        <v>-7.4527061529504812E-5</v>
+        <v>-1.3012880412035683E-4</v>
       </c>
       <c r="E16">
-        <v>5.9960507776777125E-7</v>
+        <v>1.1322219654308161E-6</v>
       </c>
       <c r="F16">
-        <v>1.3092392334212356E-4</v>
+        <v>2.1580794203587036E-4</v>
       </c>
       <c r="G16">
-        <v>1.6470059933745883E-4</v>
+        <v>1.9637764861041781E-4</v>
       </c>
       <c r="H16">
-        <v>2.0847097261110883E-4</v>
+        <v>2.1542570023287645E-4</v>
       </c>
       <c r="I16">
-        <v>2.1881178103113255E-4</v>
+        <v>2.2216103652082249E-4</v>
       </c>
       <c r="J16">
-        <v>-3.1003138934719294E-5</v>
+        <v>-6.8032426538008935E-5</v>
       </c>
       <c r="K16">
-        <v>1.4486524908681282E-4</v>
+        <v>1.989443605494481E-4</v>
       </c>
       <c r="L16">
-        <v>-2.5764756763927647E-3</v>
+        <v>-2.7033439129574913E-3</v>
       </c>
       <c r="M16">
-        <v>-2.7761717288251578E-3</v>
+        <v>-2.9746886800113524E-3</v>
       </c>
       <c r="N16">
-        <v>-2.1641653274625896E-3</v>
+        <v>-2.1930339007264787E-3</v>
       </c>
       <c r="O16">
-        <v>-1.862588448260441E-3</v>
+        <v>-1.8675075620414872E-3</v>
       </c>
       <c r="P16">
-        <v>5.6275713619170923E-3</v>
+        <v>6.1557258868310157E-3</v>
       </c>
       <c r="Q16">
-        <v>6.252501827878976E-3</v>
+        <v>7.0543557517507077E-3</v>
       </c>
       <c r="R16">
-        <v>5.1077207139254704E-3</v>
+        <v>5.5548892295003028E-3</v>
       </c>
       <c r="S16">
-        <v>4.5707365073597989E-3</v>
+        <v>4.9852520555243298E-3</v>
       </c>
       <c r="T16">
-        <v>-4.3636469632238231E-4</v>
+        <v>-5.4819725517594E-4</v>
       </c>
       <c r="U16">
-        <v>1.0509684388380142E-4</v>
+        <v>1.3376662319369848E-4</v>
       </c>
       <c r="V16">
-        <v>6.2577837606685353E-5</v>
+        <v>-3.1902895370820747E-5</v>
       </c>
       <c r="W16">
-        <v>-1.065063462696031E-3</v>
+        <v>-1.3804271133176017E-3</v>
       </c>
       <c r="X16">
-        <v>1.3661855190635858E-5</v>
+        <v>4.2853356479104737E-6</v>
       </c>
       <c r="Y16">
-        <v>-3.4456297981633893E-4</v>
+        <v>-4.6895211524192849E-4</v>
       </c>
       <c r="Z16">
-        <v>7.3954313976870816E-6</v>
+        <v>-5.5314417489184763E-6</v>
       </c>
       <c r="AA16">
-        <v>6.4886655919814653E-5</v>
+        <v>8.5021062535243488E-5</v>
       </c>
       <c r="AB16">
-        <v>3.0512910617420938E-5</v>
+        <v>3.8359341558021419E-5</v>
       </c>
       <c r="AC16">
-        <v>2.5904282873844768E-4</v>
+        <v>4.3469287656459693E-4</v>
       </c>
       <c r="AD16">
-        <v>1.1408549357300929E-4</v>
+        <v>1.674325737076238E-4</v>
       </c>
       <c r="AE16">
-        <v>-1.3425604392869775E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:31">
+        <v>-5.1067774919398004E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>35</v>
       </c>
       <c r="B17">
-        <v>3.1499370689192056E-2</v>
+        <v>-2.0848126148890309E-3</v>
       </c>
       <c r="C17">
-        <v>6.1492682015432262E-5</v>
+        <v>7.6445822694221616E-6</v>
       </c>
       <c r="D17">
-        <v>-7.7865674383883929E-5</v>
+        <v>-1.39705506618273E-4</v>
       </c>
       <c r="E17">
-        <v>6.413162360681972E-7</v>
+        <v>1.2604026596136125E-6</v>
       </c>
       <c r="F17">
-        <v>1.3371067786930061E-4</v>
+        <v>2.1298218476073749E-4</v>
       </c>
       <c r="G17">
-        <v>1.5349207192037477E-4</v>
+        <v>1.880342726022239E-4</v>
       </c>
       <c r="H17">
-        <v>1.7897948197317308E-4</v>
+        <v>1.7108897579237511E-4</v>
       </c>
       <c r="I17">
-        <v>1.4432739518061068E-4</v>
+        <v>1.1515424446067612E-4</v>
       </c>
       <c r="J17">
-        <v>5.4419788064214583E-6</v>
+        <v>1.5368570337665414E-5</v>
       </c>
       <c r="K17">
-        <v>1.6993649987777826E-4</v>
+        <v>2.3816960682487623E-4</v>
       </c>
       <c r="L17">
-        <v>-2.1745478932736857E-3</v>
+        <v>-2.2067346526645241E-3</v>
       </c>
       <c r="M17">
-        <v>-2.21864368362451E-3</v>
+        <v>-2.2629080695409664E-3</v>
       </c>
       <c r="N17">
-        <v>-2.392558240486598E-3</v>
+        <v>-2.4856633834653627E-3</v>
       </c>
       <c r="O17">
-        <v>-1.92658366826471E-3</v>
+        <v>-1.9377397887740601E-3</v>
       </c>
       <c r="P17">
-        <v>5.0885733511922375E-3</v>
+        <v>5.5327093284198688E-3</v>
       </c>
       <c r="Q17">
-        <v>5.1077207139254704E-3</v>
+        <v>5.5548892295003028E-3</v>
       </c>
       <c r="R17">
-        <v>5.4299456009182651E-3</v>
+        <v>5.9887165854071297E-3</v>
       </c>
       <c r="S17">
-        <v>4.6223912284314127E-3</v>
+        <v>5.0643242442592129E-3</v>
       </c>
       <c r="T17">
-        <v>-2.1125529784117334E-4</v>
+        <v>-2.7928226507100253E-4</v>
       </c>
       <c r="U17">
-        <v>6.7178814758030492E-5</v>
+        <v>1.204428904535207E-4</v>
       </c>
       <c r="V17">
-        <v>5.9462495235249742E-5</v>
+        <v>-8.3346097085095698E-6</v>
       </c>
       <c r="W17">
-        <v>-1.1136904372188651E-3</v>
+        <v>-1.4386398754961068E-3</v>
       </c>
       <c r="X17">
-        <v>6.033415497343542E-5</v>
+        <v>1.000062026998033E-4</v>
       </c>
       <c r="Y17">
-        <v>-2.9746980340395943E-4</v>
+        <v>-3.5341649393711165E-4</v>
       </c>
       <c r="Z17">
-        <v>3.6868287065121687E-5</v>
+        <v>7.402506471633789E-5</v>
       </c>
       <c r="AA17">
-        <v>3.2673578053700362E-5</v>
+        <v>7.0655994552281954E-5</v>
       </c>
       <c r="AB17">
-        <v>2.1125954235279618E-5</v>
+        <v>2.6509161543341908E-5</v>
       </c>
       <c r="AC17">
-        <v>9.0914040894372352E-5</v>
+        <v>1.9159541373727483E-4</v>
       </c>
       <c r="AD17">
-        <v>1.2207085241367177E-4</v>
+        <v>1.9751932488230742E-4</v>
       </c>
       <c r="AE17">
-        <v>-1.0852694211296386E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:31">
+        <v>-1.6435358980431032E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>36</v>
       </c>
       <c r="B18">
-        <v>1.5836942694536421E-2</v>
+        <v>-6.4705933494937935E-3</v>
       </c>
       <c r="C18">
-        <v>-2.555815409651486E-5</v>
+        <v>-8.4313927952784902E-5</v>
       </c>
       <c r="D18">
-        <v>-6.4399134241194486E-5</v>
+        <v>-1.176047139920382E-4</v>
       </c>
       <c r="E18">
-        <v>5.4671457186456009E-7</v>
+        <v>1.0680655679355304E-6</v>
       </c>
       <c r="F18">
-        <v>1.6923669991883002E-4</v>
+        <v>2.3980087508779121E-4</v>
       </c>
       <c r="G18">
-        <v>1.1665676137959438E-4</v>
+        <v>1.152497997193721E-4</v>
       </c>
       <c r="H18">
-        <v>1.0205573525622727E-4</v>
+        <v>5.863498425421844E-5</v>
       </c>
       <c r="I18">
-        <v>6.83991875949283E-5</v>
+        <v>1.4460491232027099E-5</v>
       </c>
       <c r="J18">
-        <v>-1.7650634335300992E-4</v>
+        <v>-2.0920434319584612E-4</v>
       </c>
       <c r="K18">
-        <v>6.1313422978955722E-5</v>
+        <v>9.2018236739481411E-5</v>
       </c>
       <c r="L18">
-        <v>-1.9573601774791776E-3</v>
+        <v>-1.9453142079831028E-3</v>
       </c>
       <c r="M18">
-        <v>-1.9972783221043448E-3</v>
+        <v>-2.0215483297175343E-3</v>
       </c>
       <c r="N18">
-        <v>-2.1226512259165629E-3</v>
+        <v>-2.1794689528326634E-3</v>
       </c>
       <c r="O18">
-        <v>-2.310241080770571E-3</v>
+        <v>-2.3976084564839629E-3</v>
       </c>
       <c r="P18">
-        <v>4.5292834643768497E-3</v>
+        <v>4.9247163944234453E-3</v>
       </c>
       <c r="Q18">
-        <v>4.5707365073597989E-3</v>
+        <v>4.9852520555243298E-3</v>
       </c>
       <c r="R18">
-        <v>4.6223912284314127E-3</v>
+        <v>5.0643242442592129E-3</v>
       </c>
       <c r="S18">
-        <v>5.1722213164345039E-3</v>
+        <v>5.657147638009662E-3</v>
       </c>
       <c r="T18">
-        <v>-1.1520348973885947E-5</v>
+        <v>-4.5703590197423315E-5</v>
       </c>
       <c r="U18">
-        <v>1.7485699785384851E-5</v>
+        <v>4.5795986309425684E-5</v>
       </c>
       <c r="V18">
-        <v>6.4344840153140057E-5</v>
+        <v>-7.958153867146042E-6</v>
       </c>
       <c r="W18">
-        <v>-1.1733502451020186E-3</v>
+        <v>-1.4753608290111061E-3</v>
       </c>
       <c r="X18">
-        <v>-5.6289014510375604E-5</v>
+        <v>-7.5186826012339157E-5</v>
       </c>
       <c r="Y18">
-        <v>-4.3877615899052635E-4</v>
+        <v>-5.4538681052765164E-4</v>
       </c>
       <c r="Z18">
-        <v>-8.5070031849521986E-5</v>
+        <v>-1.0529087558434281E-4</v>
       </c>
       <c r="AA18">
-        <v>-4.2974999332545235E-5</v>
+        <v>-5.0560030375506666E-5</v>
       </c>
       <c r="AB18">
-        <v>3.4227234685783125E-6</v>
+        <v>7.4335441974524327E-6</v>
       </c>
       <c r="AC18">
-        <v>3.6377283131555334E-4</v>
+        <v>5.4956592357811298E-4</v>
       </c>
       <c r="AD18">
-        <v>9.2380228144663243E-5</v>
+        <v>1.1914789870129466E-4</v>
       </c>
       <c r="AE18">
-        <v>-8.16534371199523E-4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:31">
+        <v>8.6658931463502612E-5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>149</v>
+      </c>
+      <c r="B19">
+        <v>3.0504572789342945</v>
+      </c>
+      <c r="C19">
+        <v>-1.6944340631422167E-5</v>
+      </c>
+      <c r="D19">
+        <v>-1.5262587174151468E-5</v>
+      </c>
+      <c r="E19">
+        <v>1.5941586021270538E-7</v>
+      </c>
+      <c r="F19">
+        <v>3.5404596948260058E-5</v>
+      </c>
+      <c r="G19">
+        <v>2.4972422748790703E-4</v>
+      </c>
+      <c r="H19">
+        <v>3.0349580914754392E-4</v>
+      </c>
+      <c r="I19">
+        <v>3.9879319470134407E-4</v>
+      </c>
+      <c r="J19">
+        <v>-1.1055485185043406E-4</v>
+      </c>
+      <c r="K19">
+        <v>-3.5910754840179932E-5</v>
+      </c>
+      <c r="L19">
+        <v>5.6157637895820384E-4</v>
+      </c>
+      <c r="M19">
+        <v>3.6523844799556766E-4</v>
+      </c>
+      <c r="N19">
+        <v>7.0673722817446026E-5</v>
+      </c>
+      <c r="O19">
+        <v>1.2539294727476795E-5</v>
+      </c>
+      <c r="P19">
+        <v>-7.8723331224483516E-4</v>
+      </c>
+      <c r="Q19">
+        <v>-5.4819725517594E-4</v>
+      </c>
+      <c r="R19">
+        <v>-2.7928226507100253E-4</v>
+      </c>
+      <c r="S19">
+        <v>-4.5703590197423315E-5</v>
+      </c>
+      <c r="T19">
+        <v>1.185139478807794E-3</v>
+      </c>
+      <c r="U19">
+        <v>6.224503801629123E-5</v>
+      </c>
+      <c r="V19">
+        <v>5.4751342481802559E-5</v>
+      </c>
+      <c r="W19">
+        <v>1.1293776294641371E-4</v>
+      </c>
+      <c r="X19">
+        <v>-6.2259211548449986E-6</v>
+      </c>
+      <c r="Y19">
+        <v>-3.9707596749715456E-5</v>
+      </c>
+      <c r="Z19">
+        <v>6.7105415735966732E-6</v>
+      </c>
+      <c r="AA19">
+        <v>-1.5210858222020616E-6</v>
+      </c>
+      <c r="AB19">
+        <v>-2.7860822331600258E-6</v>
+      </c>
+      <c r="AC19">
+        <v>4.4585244415514148E-5</v>
+      </c>
+      <c r="AD19">
+        <v>9.9974710957206154E-5</v>
+      </c>
+      <c r="AE19">
+        <v>-5.3997109975338113E-6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>150</v>
       </c>
-      <c r="B19">
-        <v>3.0458662448452598</v>
-      </c>
-      <c r="C19">
-        <v>-3.1674055771322336E-5</v>
-      </c>
-      <c r="D19">
-        <v>-1.8672075955236973E-5</v>
-      </c>
-      <c r="E19">
-        <v>1.9476403764153276E-7</v>
-      </c>
-      <c r="F19">
-        <v>4.633832356845624E-6</v>
-      </c>
-      <c r="G19">
-        <v>1.6129866759081196E-4</v>
-      </c>
-      <c r="H19">
-        <v>2.2139011106465657E-4</v>
-      </c>
-      <c r="I19">
-        <v>2.9353820367117431E-4</v>
-      </c>
-      <c r="J19">
-        <v>-9.977428755277163E-5</v>
-      </c>
-      <c r="K19">
-        <v>-4.1207649299285596E-5</v>
-      </c>
-      <c r="L19">
-        <v>3.311174462125248E-4</v>
-      </c>
-      <c r="M19">
-        <v>2.4073837622251814E-4</v>
-      </c>
-      <c r="N19">
-        <v>2.9010095317662175E-5</v>
-      </c>
-      <c r="O19">
-        <v>-3.9936707021858113E-6</v>
-      </c>
-      <c r="P19">
-        <v>-5.6636784738781207E-4</v>
-      </c>
-      <c r="Q19">
-        <v>-4.3636469632238231E-4</v>
-      </c>
-      <c r="R19">
-        <v>-2.1125529784117334E-4</v>
-      </c>
-      <c r="S19">
-        <v>-1.1520348973885947E-5</v>
-      </c>
-      <c r="T19">
-        <v>8.6892165133247562E-4</v>
-      </c>
-      <c r="U19">
-        <v>6.3903678290716767E-5</v>
-      </c>
-      <c r="V19">
-        <v>2.092152255108633E-5</v>
-      </c>
-      <c r="W19">
-        <v>9.4261314937619248E-5</v>
-      </c>
-      <c r="X19">
-        <v>-1.0230830281519934E-5</v>
-      </c>
-      <c r="Y19">
-        <v>-5.8913067660182751E-5</v>
-      </c>
-      <c r="Z19">
-        <v>-2.9809776989976415E-6</v>
-      </c>
-      <c r="AA19">
-        <v>7.7397763522556436E-6</v>
-      </c>
-      <c r="AB19">
-        <v>-7.2623356824454601E-6</v>
-      </c>
-      <c r="AC19">
-        <v>1.8917215264317756E-5</v>
-      </c>
-      <c r="AD19">
-        <v>8.8353245465143219E-5</v>
-      </c>
-      <c r="AE19">
-        <v>2.9372989306800508E-4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:31">
-      <c r="A20" t="s">
+      <c r="B20">
+        <v>-0.30534969048064814</v>
+      </c>
+      <c r="C20">
+        <v>4.8820412245630587E-5</v>
+      </c>
+      <c r="D20">
+        <v>-4.1301867216236935E-5</v>
+      </c>
+      <c r="E20">
+        <v>6.5616568419696713E-7</v>
+      </c>
+      <c r="F20">
+        <v>-5.8805653549864716E-5</v>
+      </c>
+      <c r="G20">
+        <v>5.1513894077083683E-6</v>
+      </c>
+      <c r="H20">
+        <v>6.7999461500486383E-5</v>
+      </c>
+      <c r="I20">
+        <v>1.5848216938639227E-4</v>
+      </c>
+      <c r="J20">
+        <v>-1.4748549427044742E-5</v>
+      </c>
+      <c r="K20">
+        <v>5.7540319575175623E-5</v>
+      </c>
+      <c r="L20">
+        <v>-1.0039786863162009E-4</v>
+      </c>
+      <c r="M20">
+        <v>-1.620488069139208E-4</v>
+      </c>
+      <c r="N20">
+        <v>-1.2790256894263871E-4</v>
+      </c>
+      <c r="O20">
+        <v>-4.6307632874614899E-5</v>
+      </c>
+      <c r="P20">
+        <v>1.3074418166608318E-4</v>
+      </c>
+      <c r="Q20">
+        <v>1.3376662319369848E-4</v>
+      </c>
+      <c r="R20">
+        <v>1.204428904535207E-4</v>
+      </c>
+      <c r="S20">
+        <v>4.5795986309425684E-5</v>
+      </c>
+      <c r="T20">
+        <v>6.224503801629123E-5</v>
+      </c>
+      <c r="U20">
+        <v>1.5538979288345826E-3</v>
+      </c>
+      <c r="V20">
+        <v>4.642098152565799E-4</v>
+      </c>
+      <c r="W20">
+        <v>6.8018615316979743E-4</v>
+      </c>
+      <c r="X20">
+        <v>-6.7107604173138324E-5</v>
+      </c>
+      <c r="Y20">
+        <v>-3.2841914293019989E-5</v>
+      </c>
+      <c r="Z20">
+        <v>4.5261724056359349E-5</v>
+      </c>
+      <c r="AA20">
+        <v>2.0034439429145366E-5</v>
+      </c>
+      <c r="AB20">
+        <v>-5.1319829414190755E-6</v>
+      </c>
+      <c r="AC20">
+        <v>7.5728111262543887E-5</v>
+      </c>
+      <c r="AD20">
+        <v>-1.2376680740215802E-5</v>
+      </c>
+      <c r="AE20">
+        <v>-1.2779686550044473E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>151</v>
       </c>
-      <c r="B20">
-        <v>-0.34424438925699569</v>
-      </c>
-      <c r="C20">
-        <v>4.0330970031752387E-5</v>
-      </c>
-      <c r="D20">
-        <v>-1.1191223926293556E-5</v>
-      </c>
-      <c r="E20">
-        <v>2.9590460121082085E-7</v>
-      </c>
-      <c r="F20">
-        <v>-3.7567582713760499E-5</v>
-      </c>
-      <c r="G20">
-        <v>8.5479751965448069E-6</v>
-      </c>
-      <c r="H20">
-        <v>4.5906879073268494E-5</v>
-      </c>
-      <c r="I20">
-        <v>1.2664412991004792E-4</v>
-      </c>
-      <c r="J20">
-        <v>-2.8258033143757754E-5</v>
-      </c>
-      <c r="K20">
-        <v>2.7307131884111153E-5</v>
-      </c>
-      <c r="L20">
-        <v>-1.0754834117305012E-4</v>
-      </c>
-      <c r="M20">
-        <v>-1.5782340717508577E-4</v>
-      </c>
-      <c r="N20">
-        <v>-1.112362233726635E-4</v>
-      </c>
-      <c r="O20">
-        <v>-4.5909044495007963E-5</v>
-      </c>
-      <c r="P20">
-        <v>5.2310398402793387E-5</v>
-      </c>
-      <c r="Q20">
-        <v>1.0509684388380142E-4</v>
-      </c>
-      <c r="R20">
-        <v>6.7178814758030492E-5</v>
-      </c>
-      <c r="S20">
-        <v>1.7485699785384851E-5</v>
-      </c>
-      <c r="T20">
-        <v>6.3903678290716767E-5</v>
-      </c>
-      <c r="U20">
-        <v>1.3701257975847637E-3</v>
-      </c>
-      <c r="V20">
-        <v>3.885964467418531E-4</v>
-      </c>
-      <c r="W20">
-        <v>6.003054823957506E-4</v>
-      </c>
-      <c r="X20">
-        <v>-6.635893922120018E-5</v>
-      </c>
-      <c r="Y20">
-        <v>-5.1572208547148172E-5</v>
-      </c>
-      <c r="Z20">
-        <v>2.5976293460618026E-5</v>
-      </c>
-      <c r="AA20">
-        <v>3.4419011381544223E-6</v>
-      </c>
-      <c r="AB20">
-        <v>-6.3173094424063469E-6</v>
-      </c>
-      <c r="AC20">
-        <v>7.057999342769841E-5</v>
-      </c>
-      <c r="AD20">
-        <v>-1.2127755071688909E-5</v>
-      </c>
-      <c r="AE20">
-        <v>-5.516883470381513E-4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:31">
-      <c r="A21" t="s">
+      <c r="B21">
+        <v>-8.0945851798714177E-2</v>
+      </c>
+      <c r="C21">
+        <v>-2.3425659878264688E-5</v>
+      </c>
+      <c r="D21">
+        <v>4.3363156643017118E-5</v>
+      </c>
+      <c r="E21">
+        <v>-2.809565405901747E-7</v>
+      </c>
+      <c r="F21">
+        <v>7.6728530593447733E-5</v>
+      </c>
+      <c r="G21">
+        <v>4.3558316387817028E-4</v>
+      </c>
+      <c r="H21">
+        <v>3.9634687931812195E-4</v>
+      </c>
+      <c r="I21">
+        <v>5.34280546520854E-4</v>
+      </c>
+      <c r="J21">
+        <v>-1.2088789922406381E-4</v>
+      </c>
+      <c r="K21">
+        <v>-5.5723239792774994E-5</v>
+      </c>
+      <c r="L21">
+        <v>6.3909363093951621E-5</v>
+      </c>
+      <c r="M21">
+        <v>-5.1587986519865004E-5</v>
+      </c>
+      <c r="N21">
+        <v>1.2177650956829607E-5</v>
+      </c>
+      <c r="O21">
+        <v>8.1733548453058209E-5</v>
+      </c>
+      <c r="P21">
+        <v>-5.8443496382440125E-5</v>
+      </c>
+      <c r="Q21">
+        <v>-3.1902895370820747E-5</v>
+      </c>
+      <c r="R21">
+        <v>-8.3346097085095698E-6</v>
+      </c>
+      <c r="S21">
+        <v>-7.958153867146042E-6</v>
+      </c>
+      <c r="T21">
+        <v>5.4751342481802559E-5</v>
+      </c>
+      <c r="U21">
+        <v>4.642098152565799E-4</v>
+      </c>
+      <c r="V21">
+        <v>1.2224811257781694E-3</v>
+      </c>
+      <c r="W21">
+        <v>6.1764715683518094E-4</v>
+      </c>
+      <c r="X21">
+        <v>-1.8842599526251116E-5</v>
+      </c>
+      <c r="Y21">
+        <v>-8.3549212430696984E-6</v>
+      </c>
+      <c r="Z21">
+        <v>7.6719315212918696E-5</v>
+      </c>
+      <c r="AA21">
+        <v>4.3044786486174963E-5</v>
+      </c>
+      <c r="AB21">
+        <v>-1.0461808204118383E-5</v>
+      </c>
+      <c r="AC21">
+        <v>-5.4348334646105601E-5</v>
+      </c>
+      <c r="AD21">
+        <v>5.0456480996756252E-5</v>
+      </c>
+      <c r="AE21">
+        <v>-2.0099270617595106E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>152</v>
       </c>
-      <c r="B21">
-        <v>5.2817124008747759E-2</v>
-      </c>
-      <c r="C21">
-        <v>1.5640731584366044E-5</v>
-      </c>
-      <c r="D21">
-        <v>3.3481050824638518E-5</v>
-      </c>
-      <c r="E21">
-        <v>-1.894050315349318E-7</v>
-      </c>
-      <c r="F21">
-        <v>3.3151961497185975E-5</v>
-      </c>
-      <c r="G21">
-        <v>2.3192712998419874E-4</v>
-      </c>
-      <c r="H21">
-        <v>1.9902126839789228E-4</v>
-      </c>
-      <c r="I21">
-        <v>2.9726748617773456E-4</v>
-      </c>
-      <c r="J21">
-        <v>-8.0664229109559258E-5</v>
-      </c>
-      <c r="K21">
-        <v>-3.1102998632932113E-5</v>
-      </c>
-      <c r="L21">
-        <v>7.0365965331497946E-5</v>
-      </c>
-      <c r="M21">
-        <v>-4.5434826840054817E-5</v>
-      </c>
-      <c r="N21">
-        <v>9.6684278836339263E-6</v>
-      </c>
-      <c r="O21">
-        <v>5.2008404423491651E-5</v>
-      </c>
-      <c r="P21">
-        <v>-6.3147597751554987E-6</v>
-      </c>
-      <c r="Q21">
-        <v>6.2577837606685353E-5</v>
-      </c>
-      <c r="R21">
-        <v>5.9462495235249742E-5</v>
-      </c>
-      <c r="S21">
-        <v>6.4344840153140057E-5</v>
-      </c>
-      <c r="T21">
-        <v>2.092152255108633E-5</v>
-      </c>
-      <c r="U21">
-        <v>3.885964467418531E-4</v>
-      </c>
-      <c r="V21">
-        <v>8.7060414324688004E-4</v>
-      </c>
-      <c r="W21">
-        <v>4.5825895380133464E-4</v>
-      </c>
-      <c r="X21">
-        <v>-3.0647172848616376E-6</v>
-      </c>
-      <c r="Y21">
-        <v>-1.2081118877225019E-5</v>
-      </c>
-      <c r="Z21">
-        <v>5.6847352840631773E-5</v>
-      </c>
-      <c r="AA21">
-        <v>2.6299822871747196E-5</v>
-      </c>
-      <c r="AB21">
-        <v>-8.6864192158024285E-6</v>
-      </c>
-      <c r="AC21">
-        <v>-4.2039487757661668E-5</v>
-      </c>
-      <c r="AD21">
-        <v>2.0502280240054E-5</v>
-      </c>
-      <c r="AE21">
-        <v>-1.6200548047825569E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:31">
-      <c r="A22" t="s">
+      <c r="B22">
+        <v>-0.32615763057514646</v>
+      </c>
+      <c r="C22">
+        <v>3.0870727675756253E-4</v>
+      </c>
+      <c r="D22">
+        <v>1.0826850725933893E-5</v>
+      </c>
+      <c r="E22">
+        <v>2.7543366479169467E-7</v>
+      </c>
+      <c r="F22">
+        <v>-3.081932486474658E-4</v>
+      </c>
+      <c r="G22">
+        <v>-6.9235972234143531E-5</v>
+      </c>
+      <c r="H22">
+        <v>4.3836331728432592E-4</v>
+      </c>
+      <c r="I22">
+        <v>1.3256023061488417E-4</v>
+      </c>
+      <c r="J22">
+        <v>6.9251911281007069E-4</v>
+      </c>
+      <c r="K22">
+        <v>2.3174435537755071E-5</v>
+      </c>
+      <c r="L22">
+        <v>-3.9253147905845545E-4</v>
+      </c>
+      <c r="M22">
+        <v>-4.0711953044825135E-4</v>
+      </c>
+      <c r="N22">
+        <v>-1.5917070160801575E-4</v>
+      </c>
+      <c r="O22">
+        <v>-1.758596536063175E-4</v>
+      </c>
+      <c r="P22">
+        <v>-1.3434065992879475E-3</v>
+      </c>
+      <c r="Q22">
+        <v>-1.3804271133176017E-3</v>
+      </c>
+      <c r="R22">
+        <v>-1.4386398754961068E-3</v>
+      </c>
+      <c r="S22">
+        <v>-1.4753608290111061E-3</v>
+      </c>
+      <c r="T22">
+        <v>1.1293776294641371E-4</v>
+      </c>
+      <c r="U22">
+        <v>6.8018615316979743E-4</v>
+      </c>
+      <c r="V22">
+        <v>6.1764715683518094E-4</v>
+      </c>
+      <c r="W22">
+        <v>1.3048121262484415E-2</v>
+      </c>
+      <c r="X22">
+        <v>1.5149050193069297E-4</v>
+      </c>
+      <c r="Y22">
+        <v>6.4972941085833719E-5</v>
+      </c>
+      <c r="Z22">
+        <v>1.8368667210653472E-4</v>
+      </c>
+      <c r="AA22">
+        <v>3.2306914549898807E-4</v>
+      </c>
+      <c r="AB22">
+        <v>-4.5550775173204512E-5</v>
+      </c>
+      <c r="AC22">
+        <v>-2.8143961853759243E-4</v>
+      </c>
+      <c r="AD22">
+        <v>4.1676135678869736E-4</v>
+      </c>
+      <c r="AE22">
+        <v>6.0033210827087829E-5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>153</v>
       </c>
-      <c r="B22">
-        <v>-0.2632397313671041</v>
-      </c>
-      <c r="C22">
-        <v>2.9070517999310559E-4</v>
-      </c>
-      <c r="D22">
-        <v>2.4415823306543962E-5</v>
-      </c>
-      <c r="E22">
-        <v>9.0499618333845358E-8</v>
-      </c>
-      <c r="F22">
-        <v>-1.8975529583016191E-4</v>
-      </c>
-      <c r="G22">
-        <v>-1.1355042673660174E-4</v>
-      </c>
-      <c r="H22">
-        <v>3.4604513079523511E-4</v>
-      </c>
-      <c r="I22">
-        <v>1.3849610429641701E-4</v>
-      </c>
-      <c r="J22">
-        <v>5.2303985170101656E-4</v>
-      </c>
-      <c r="K22">
-        <v>1.77447529915283E-5</v>
-      </c>
-      <c r="L22">
-        <v>-3.0904118410029591E-4</v>
-      </c>
-      <c r="M22">
-        <v>-3.8209891664620007E-4</v>
-      </c>
-      <c r="N22">
-        <v>-1.9547879688364437E-4</v>
-      </c>
-      <c r="O22">
-        <v>-1.6295876341354827E-4</v>
-      </c>
-      <c r="P22">
-        <v>-1.1125863255385768E-3</v>
-      </c>
-      <c r="Q22">
-        <v>-1.065063462696031E-3</v>
-      </c>
-      <c r="R22">
-        <v>-1.1136904372188651E-3</v>
-      </c>
-      <c r="S22">
-        <v>-1.1733502451020186E-3</v>
-      </c>
-      <c r="T22">
-        <v>9.4261314937619248E-5</v>
-      </c>
-      <c r="U22">
-        <v>6.003054823957506E-4</v>
-      </c>
-      <c r="V22">
-        <v>4.5825895380133464E-4</v>
-      </c>
-      <c r="W22">
-        <v>1.1773815988119394E-2</v>
-      </c>
-      <c r="X22">
-        <v>1.5790761192316092E-4</v>
-      </c>
-      <c r="Y22">
-        <v>4.2915845705457079E-5</v>
-      </c>
-      <c r="Z22">
-        <v>1.4234663040931691E-4</v>
-      </c>
-      <c r="AA22">
-        <v>2.504144281539786E-4</v>
-      </c>
-      <c r="AB22">
-        <v>-3.5275956389941238E-5</v>
-      </c>
-      <c r="AC22">
-        <v>-2.2593573260363907E-4</v>
-      </c>
-      <c r="AD22">
-        <v>3.4124225317912514E-4</v>
-      </c>
-      <c r="AE22">
-        <v>-4.5483916703289946E-4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:31">
-      <c r="A23" t="s">
+      <c r="B23">
+        <v>0.10325700487655891</v>
+      </c>
+      <c r="C23">
+        <v>-8.0094570528247227E-6</v>
+      </c>
+      <c r="D23">
+        <v>-2.0398592080721626E-5</v>
+      </c>
+      <c r="E23">
+        <v>2.3113621937432759E-7</v>
+      </c>
+      <c r="F23">
+        <v>-1.7606256040335013E-4</v>
+      </c>
+      <c r="G23">
+        <v>-9.7832769205158208E-5</v>
+      </c>
+      <c r="H23">
+        <v>-5.3354243084324552E-5</v>
+      </c>
+      <c r="I23">
+        <v>-3.1902653852359904E-5</v>
+      </c>
+      <c r="J23">
+        <v>4.4376345787811808E-4</v>
+      </c>
+      <c r="K23">
+        <v>2.3302607856801451E-4</v>
+      </c>
+      <c r="L23">
+        <v>-1.3066671515610373E-4</v>
+      </c>
+      <c r="M23">
+        <v>-1.5971602283673263E-4</v>
+      </c>
+      <c r="N23">
+        <v>-3.3127018255980196E-4</v>
+      </c>
+      <c r="O23">
+        <v>-1.7634128199446955E-4</v>
+      </c>
+      <c r="P23">
+        <v>2.1315218376613039E-4</v>
+      </c>
+      <c r="Q23">
+        <v>4.2853356479104737E-6</v>
+      </c>
+      <c r="R23">
+        <v>1.000062026998033E-4</v>
+      </c>
+      <c r="S23">
+        <v>-7.5186826012339157E-5</v>
+      </c>
+      <c r="T23">
+        <v>-6.2259211548449986E-6</v>
+      </c>
+      <c r="U23">
+        <v>-6.7107604173138324E-5</v>
+      </c>
+      <c r="V23">
+        <v>-1.8842599526251116E-5</v>
+      </c>
+      <c r="W23">
+        <v>1.5149050193069297E-4</v>
+      </c>
+      <c r="X23">
+        <v>2.157706957978275E-3</v>
+      </c>
+      <c r="Y23">
+        <v>1.0810864059917949E-3</v>
+      </c>
+      <c r="Z23">
+        <v>1.0974055860927937E-3</v>
+      </c>
+      <c r="AA23">
+        <v>1.0726881617829434E-3</v>
+      </c>
+      <c r="AB23">
+        <v>-6.9458647205372601E-6</v>
+      </c>
+      <c r="AC23">
+        <v>-4.094667956800875E-4</v>
+      </c>
+      <c r="AD23">
+        <v>-3.7713780281046057E-5</v>
+      </c>
+      <c r="AE23">
+        <v>-4.1740194483644939E-4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>154</v>
       </c>
-      <c r="B23">
-        <v>9.6765519624816915E-2</v>
-      </c>
-      <c r="C23">
-        <v>1.3824666273086433E-5</v>
-      </c>
-      <c r="D23">
-        <v>-2.79733426363412E-6</v>
-      </c>
-      <c r="E23">
-        <v>3.9268149044268227E-8</v>
-      </c>
-      <c r="F23">
-        <v>-7.8968453276156701E-5</v>
-      </c>
-      <c r="G23">
-        <v>-3.2526945431742727E-5</v>
-      </c>
-      <c r="H23">
-        <v>1.6224637346015065E-5</v>
-      </c>
-      <c r="I23">
-        <v>3.6752668362857954E-5</v>
-      </c>
-      <c r="J23">
-        <v>2.9775535828373419E-4</v>
-      </c>
-      <c r="K23">
-        <v>1.3942710095878641E-4</v>
-      </c>
-      <c r="L23">
-        <v>-1.3630291576652577E-4</v>
-      </c>
-      <c r="M23">
-        <v>-1.2584552875939694E-4</v>
-      </c>
-      <c r="N23">
-        <v>-2.4978679035042269E-4</v>
-      </c>
-      <c r="O23">
-        <v>-1.3731990757932067E-4</v>
-      </c>
-      <c r="P23">
-        <v>9.1428718614407922E-5</v>
-      </c>
-      <c r="Q23">
-        <v>1.3661855190635858E-5</v>
-      </c>
-      <c r="R23">
-        <v>6.033415497343542E-5</v>
-      </c>
-      <c r="S23">
-        <v>-5.6289014510375604E-5</v>
-      </c>
-      <c r="T23">
-        <v>-1.0230830281519934E-5</v>
-      </c>
-      <c r="U23">
-        <v>-6.635893922120018E-5</v>
-      </c>
-      <c r="V23">
-        <v>-3.0647172848616376E-6</v>
-      </c>
-      <c r="W23">
-        <v>1.5790761192316092E-4</v>
-      </c>
-      <c r="X23">
-        <v>1.672953227578774E-3</v>
-      </c>
-      <c r="Y23">
-        <v>8.4213996376323111E-4</v>
-      </c>
-      <c r="Z23">
-        <v>8.5482772657418282E-4</v>
-      </c>
-      <c r="AA23">
-        <v>8.3360842555770605E-4</v>
-      </c>
-      <c r="AB23">
-        <v>-3.5604299554277455E-6</v>
-      </c>
-      <c r="AC23">
-        <v>-2.9995747962675905E-4</v>
-      </c>
-      <c r="AD23">
-        <v>-1.4957854471257655E-5</v>
-      </c>
-      <c r="AE23">
-        <v>-6.6059350828457546E-4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:31">
-      <c r="A24" t="s">
+      <c r="B24">
+        <v>-4.2853437092558282E-3</v>
+      </c>
+      <c r="C24">
+        <v>9.1913518446708252E-5</v>
+      </c>
+      <c r="D24">
+        <v>1.6150456546401093E-5</v>
+      </c>
+      <c r="E24">
+        <v>-1.1474817564244896E-7</v>
+      </c>
+      <c r="F24">
+        <v>-3.0107671205607648E-4</v>
+      </c>
+      <c r="G24">
+        <v>-3.3149888096373447E-4</v>
+      </c>
+      <c r="H24">
+        <v>-3.2248880425095024E-4</v>
+      </c>
+      <c r="I24">
+        <v>-3.4771977019395491E-4</v>
+      </c>
+      <c r="J24">
+        <v>4.066727667590843E-4</v>
+      </c>
+      <c r="K24">
+        <v>2.0065735980076264E-4</v>
+      </c>
+      <c r="L24">
+        <v>1.6654965216130607E-5</v>
+      </c>
+      <c r="M24">
+        <v>-8.6015871867068175E-5</v>
+      </c>
+      <c r="N24">
+        <v>-9.5223783296832093E-5</v>
+      </c>
+      <c r="O24">
+        <v>1.3914613352185128E-4</v>
+      </c>
+      <c r="P24">
+        <v>-3.7193664471061357E-4</v>
+      </c>
+      <c r="Q24">
+        <v>-4.6895211524192849E-4</v>
+      </c>
+      <c r="R24">
+        <v>-3.5341649393711165E-4</v>
+      </c>
+      <c r="S24">
+        <v>-5.4538681052765164E-4</v>
+      </c>
+      <c r="T24">
+        <v>-3.9707596749715456E-5</v>
+      </c>
+      <c r="U24">
+        <v>-3.2841914293019989E-5</v>
+      </c>
+      <c r="V24">
+        <v>-8.3549212430696984E-6</v>
+      </c>
+      <c r="W24">
+        <v>6.4972941085833719E-5</v>
+      </c>
+      <c r="X24">
+        <v>1.0810864059917949E-3</v>
+      </c>
+      <c r="Y24">
+        <v>3.7115061146127024E-3</v>
+      </c>
+      <c r="Z24">
+        <v>1.0873117442566568E-3</v>
+      </c>
+      <c r="AA24">
+        <v>1.0754191789184206E-3</v>
+      </c>
+      <c r="AB24">
+        <v>-1.131364596135027E-5</v>
+      </c>
+      <c r="AC24">
+        <v>-3.4346400815114423E-4</v>
+      </c>
+      <c r="AD24">
+        <v>-8.1467334499457698E-5</v>
+      </c>
+      <c r="AE24">
+        <v>-8.4197121883529706E-4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>155</v>
       </c>
-      <c r="B24">
-        <v>-1.5223115085004702E-2</v>
-      </c>
-      <c r="C24">
-        <v>9.7018682663903947E-5</v>
-      </c>
-      <c r="D24">
-        <v>2.2640381871488959E-5</v>
-      </c>
-      <c r="E24">
-        <v>-2.0158034699957307E-7</v>
-      </c>
-      <c r="F24">
-        <v>-1.9398603687048366E-4</v>
-      </c>
-      <c r="G24">
-        <v>-2.2297703095891939E-4</v>
-      </c>
-      <c r="H24">
-        <v>-2.106216036252749E-4</v>
-      </c>
-      <c r="I24">
-        <v>-2.4438259398956974E-4</v>
-      </c>
-      <c r="J24">
-        <v>3.0809896719448361E-4</v>
-      </c>
-      <c r="K24">
-        <v>1.0303767574420278E-4</v>
-      </c>
-      <c r="L24">
-        <v>-5.9070512075283539E-5</v>
-      </c>
-      <c r="M24">
-        <v>-6.1100203847705474E-5</v>
-      </c>
-      <c r="N24">
-        <v>-5.6302630728255856E-5</v>
-      </c>
-      <c r="O24">
-        <v>1.0274417623416359E-4</v>
-      </c>
-      <c r="P24">
-        <v>-3.021514773426325E-4</v>
-      </c>
-      <c r="Q24">
-        <v>-3.4456297981633893E-4</v>
-      </c>
-      <c r="R24">
-        <v>-2.9746980340395943E-4</v>
-      </c>
-      <c r="S24">
-        <v>-4.3877615899052635E-4</v>
-      </c>
-      <c r="T24">
-        <v>-5.8913067660182751E-5</v>
-      </c>
-      <c r="U24">
-        <v>-5.1572208547148172E-5</v>
-      </c>
-      <c r="V24">
-        <v>-1.2081118877225019E-5</v>
-      </c>
-      <c r="W24">
-        <v>4.2915845705457079E-5</v>
-      </c>
-      <c r="X24">
-        <v>8.4213996376323111E-4</v>
-      </c>
-      <c r="Y24">
-        <v>3.0139230409724259E-3</v>
-      </c>
-      <c r="Z24">
-        <v>8.4877707303356368E-4</v>
-      </c>
-      <c r="AA24">
-        <v>8.3780881266076941E-4</v>
-      </c>
-      <c r="AB24">
-        <v>-4.9412881450070872E-6</v>
-      </c>
-      <c r="AC24">
-        <v>-2.5238720856677525E-4</v>
-      </c>
-      <c r="AD24">
-        <v>-7.1458737881718555E-5</v>
-      </c>
-      <c r="AE24">
-        <v>-9.2307575863687487E-4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:31">
-      <c r="A25" t="s">
+      <c r="B25">
+        <v>9.5428010698603544E-2</v>
+      </c>
+      <c r="C25">
+        <v>7.2387238081002351E-6</v>
+      </c>
+      <c r="D25">
+        <v>2.1735605719534935E-5</v>
+      </c>
+      <c r="E25">
+        <v>-1.4628693346793246E-7</v>
+      </c>
+      <c r="F25">
+        <v>-1.0939563209666459E-4</v>
+      </c>
+      <c r="G25">
+        <v>-1.2579670357068992E-4</v>
+      </c>
+      <c r="H25">
+        <v>-3.2639608411788896E-5</v>
+      </c>
+      <c r="I25">
+        <v>-6.5881241055797287E-5</v>
+      </c>
+      <c r="J25">
+        <v>3.8485082840294504E-4</v>
+      </c>
+      <c r="K25">
+        <v>1.8288271732237114E-4</v>
+      </c>
+      <c r="L25">
+        <v>7.1312518832228507E-5</v>
+      </c>
+      <c r="M25">
+        <v>-1.140308966839196E-4</v>
+      </c>
+      <c r="N25">
+        <v>-1.7650665751156201E-4</v>
+      </c>
+      <c r="O25">
+        <v>2.2686437937832326E-5</v>
+      </c>
+      <c r="P25">
+        <v>1.8328977098105325E-5</v>
+      </c>
+      <c r="Q25">
+        <v>-5.5314417489184763E-6</v>
+      </c>
+      <c r="R25">
+        <v>7.402506471633789E-5</v>
+      </c>
+      <c r="S25">
+        <v>-1.0529087558434281E-4</v>
+      </c>
+      <c r="T25">
+        <v>6.7105415735966732E-6</v>
+      </c>
+      <c r="U25">
+        <v>4.5261724056359349E-5</v>
+      </c>
+      <c r="V25">
+        <v>7.6719315212918696E-5</v>
+      </c>
+      <c r="W25">
+        <v>1.8368667210653472E-4</v>
+      </c>
+      <c r="X25">
+        <v>1.0974055860927937E-3</v>
+      </c>
+      <c r="Y25">
+        <v>1.0873117442566568E-3</v>
+      </c>
+      <c r="Z25">
+        <v>2.0936934571223276E-3</v>
+      </c>
+      <c r="AA25">
+        <v>1.0772344768417233E-3</v>
+      </c>
+      <c r="AB25">
+        <v>-8.4157737523317003E-6</v>
+      </c>
+      <c r="AC25">
+        <v>-4.2423156800400571E-4</v>
+      </c>
+      <c r="AD25">
+        <v>-4.2665754442977762E-5</v>
+      </c>
+      <c r="AE25">
+        <v>-1.6384722489134272E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>156</v>
       </c>
-      <c r="B25">
-        <v>7.7992941764012322E-2</v>
-      </c>
-      <c r="C25">
-        <v>2.5756222438777611E-5</v>
-      </c>
-      <c r="D25">
-        <v>2.9994045210235794E-5</v>
-      </c>
-      <c r="E25">
-        <v>-2.4338307746905507E-7</v>
-      </c>
-      <c r="F25">
-        <v>-3.7384455852120123E-5</v>
-      </c>
-      <c r="G25">
-        <v>-5.8034242335617983E-5</v>
-      </c>
-      <c r="H25">
-        <v>1.4852110634760762E-5</v>
-      </c>
-      <c r="I25">
-        <v>-6.6164674592822999E-6</v>
-      </c>
-      <c r="J25">
-        <v>2.8895195224082104E-4</v>
-      </c>
-      <c r="K25">
-        <v>1.1747642770499167E-4</v>
-      </c>
-      <c r="L25">
-        <v>-1.1224814378934427E-5</v>
-      </c>
-      <c r="M25">
-        <v>-9.167170702389067E-5</v>
-      </c>
-      <c r="N25">
-        <v>-1.2887824179376724E-4</v>
-      </c>
-      <c r="O25">
-        <v>2.3840217304413405E-5</v>
-      </c>
-      <c r="P25">
-        <v>1.1134675593166717E-5</v>
-      </c>
-      <c r="Q25">
-        <v>7.3954313976870816E-6</v>
-      </c>
-      <c r="R25">
-        <v>3.6868287065121687E-5</v>
-      </c>
-      <c r="S25">
-        <v>-8.5070031849521986E-5</v>
-      </c>
-      <c r="T25">
-        <v>-2.9809776989976415E-6</v>
-      </c>
-      <c r="U25">
-        <v>2.5976293460618026E-5</v>
-      </c>
-      <c r="V25">
-        <v>5.6847352840631773E-5</v>
-      </c>
-      <c r="W25">
-        <v>1.4234663040931691E-4</v>
-      </c>
-      <c r="X25">
-        <v>8.5482772657418282E-4</v>
-      </c>
-      <c r="Y25">
-        <v>8.4877707303356368E-4</v>
-      </c>
-      <c r="Z25">
-        <v>1.6929220038554395E-3</v>
-      </c>
-      <c r="AA25">
-        <v>8.3920274865325792E-4</v>
-      </c>
-      <c r="AB25">
-        <v>-5.524515212219672E-6</v>
-      </c>
-      <c r="AC25">
-        <v>-3.1540427800138345E-4</v>
-      </c>
-      <c r="AD25">
-        <v>-2.1650138282514709E-5</v>
-      </c>
-      <c r="AE25">
-        <v>-1.6332616239231042E-3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:31">
-      <c r="A26" t="s">
-        <v>157</v>
-      </c>
       <c r="B26">
-        <v>5.6458526514045267E-2</v>
+        <v>7.2855811347498953E-2</v>
       </c>
       <c r="C26">
-        <v>5.2233129869678745E-5</v>
+        <v>3.3528623828442484E-5</v>
       </c>
       <c r="D26">
-        <v>1.2317741396003566E-5</v>
+        <v>4.1014199652411923E-6</v>
       </c>
       <c r="E26">
-        <v>-9.2505600322732801E-8</v>
+        <v>9.9658730649675203E-9</v>
       </c>
       <c r="F26">
-        <v>-6.485532149175733E-5</v>
+        <v>-1.331735477366203E-4</v>
       </c>
       <c r="G26">
-        <v>-2.3707193679087747E-5</v>
+        <v>-7.9877415246777645E-5</v>
       </c>
       <c r="H26">
-        <v>4.2651387857235751E-5</v>
+        <v>-6.9786703108874032E-7</v>
       </c>
       <c r="I26">
-        <v>4.0925290338005731E-5</v>
+        <v>-4.3654065604346607E-6</v>
       </c>
       <c r="J26">
-        <v>9.090156829715211E-5</v>
+        <v>1.5582334494852336E-4</v>
       </c>
       <c r="K26">
-        <v>8.3582886629128745E-5</v>
+        <v>1.3691074988826142E-4</v>
       </c>
       <c r="L26">
-        <v>-5.8813861728965068E-5</v>
+        <v>-5.5244422169377881E-6</v>
       </c>
       <c r="M26">
-        <v>-1.2571603767109416E-4</v>
+        <v>-1.7435334149010955E-4</v>
       </c>
       <c r="N26">
-        <v>-1.6359080690642855E-4</v>
+        <v>-2.3802080193720395E-4</v>
       </c>
       <c r="O26">
-        <v>-6.5931270338302162E-5</v>
+        <v>-9.2541808030758427E-5</v>
       </c>
       <c r="P26">
-        <v>1.8937760688898788E-5</v>
+        <v>6.1232090520007816E-5</v>
       </c>
       <c r="Q26">
-        <v>6.4886655919814653E-5</v>
+        <v>8.5021062535243488E-5</v>
       </c>
       <c r="R26">
-        <v>3.2673578053700362E-5</v>
+        <v>7.0655994552281954E-5</v>
       </c>
       <c r="S26">
-        <v>-4.2974999332545235E-5</v>
+        <v>-5.0560030375506666E-5</v>
       </c>
       <c r="T26">
-        <v>7.7397763522556436E-6</v>
+        <v>-1.5210858222020616E-6</v>
       </c>
       <c r="U26">
-        <v>3.4419011381544223E-6</v>
+        <v>2.0034439429145366E-5</v>
       </c>
       <c r="V26">
-        <v>2.6299822871747196E-5</v>
+        <v>4.3044786486174963E-5</v>
       </c>
       <c r="W26">
-        <v>2.504144281539786E-4</v>
+        <v>3.2306914549898807E-4</v>
       </c>
       <c r="X26">
-        <v>8.3360842555770605E-4</v>
+        <v>1.0726881617829434E-3</v>
       </c>
       <c r="Y26">
-        <v>8.3780881266076941E-4</v>
+        <v>1.0754191789184206E-3</v>
       </c>
       <c r="Z26">
-        <v>8.3920274865325792E-4</v>
+        <v>1.0772344768417233E-3</v>
       </c>
       <c r="AA26">
-        <v>1.1784379753403107E-3</v>
+        <v>1.4965052824670645E-3</v>
       </c>
       <c r="AB26">
-        <v>-3.0653165374760252E-6</v>
+        <v>-7.9635684722459592E-6</v>
       </c>
       <c r="AC26">
-        <v>-2.5300490166972611E-4</v>
+        <v>-3.325440264465626E-4</v>
       </c>
       <c r="AD26">
-        <v>-4.5695859639753047E-5</v>
+        <v>-5.9740793280549045E-5</v>
       </c>
       <c r="AE26">
-        <v>-1.1381778631689393E-3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:31">
+        <v>-1.1065479426842603E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>60</v>
       </c>
       <c r="B27">
-        <v>3.6850061357776138E-3</v>
+        <v>7.8927565087718414E-3</v>
       </c>
       <c r="C27">
-        <v>1.1974134353835163E-6</v>
+        <v>-2.6493024681511719E-7</v>
       </c>
       <c r="D27">
-        <v>6.300415800930245E-7</v>
+        <v>-9.3985151660886082E-7</v>
       </c>
       <c r="E27">
-        <v>-1.1556930564425617E-8</v>
+        <v>6.2001875808227799E-9</v>
       </c>
       <c r="F27">
-        <v>1.1784496595996078E-5</v>
+        <v>1.694723483821537E-5</v>
       </c>
       <c r="G27">
-        <v>2.2341667609787773E-6</v>
+        <v>3.6166173939713148E-6</v>
       </c>
       <c r="H27">
-        <v>-6.1673027232176443E-6</v>
+        <v>-8.2610142715344879E-6</v>
       </c>
       <c r="I27">
-        <v>-8.5722466681701392E-7</v>
+        <v>-3.2433744424497664E-7</v>
       </c>
       <c r="J27">
-        <v>-5.1732611831501141E-6</v>
+        <v>-7.6960201914972919E-6</v>
       </c>
       <c r="K27">
-        <v>-5.7771727102739515E-6</v>
+        <v>-3.4323020929329137E-6</v>
       </c>
       <c r="L27">
-        <v>-8.977548393304209E-6</v>
+        <v>-7.5864359901333647E-6</v>
       </c>
       <c r="M27">
-        <v>1.4834233938660515E-6</v>
+        <v>2.6070427339936278E-6</v>
       </c>
       <c r="N27">
-        <v>-1.3471666021975509E-6</v>
+        <v>-5.716105021892127E-7</v>
       </c>
       <c r="O27">
-        <v>-2.5117385245244006E-6</v>
+        <v>-2.7143130047582492E-6</v>
       </c>
       <c r="P27">
-        <v>2.7079636084297921E-5</v>
+        <v>3.0990786475217457E-5</v>
       </c>
       <c r="Q27">
-        <v>3.0512910617420938E-5</v>
+        <v>3.8359341558021419E-5</v>
       </c>
       <c r="R27">
-        <v>2.1125954235279618E-5</v>
+        <v>2.6509161543341908E-5</v>
       </c>
       <c r="S27">
-        <v>3.4227234685783125E-6</v>
+        <v>7.4335441974524327E-6</v>
       </c>
       <c r="T27">
-        <v>-7.2623356824454601E-6</v>
+        <v>-2.7860822331600258E-6</v>
       </c>
       <c r="U27">
-        <v>-6.3173094424063469E-6</v>
+        <v>-5.1319829414190755E-6</v>
       </c>
       <c r="V27">
-        <v>-8.6864192158024285E-6</v>
+        <v>-1.0461808204118383E-5</v>
       </c>
       <c r="W27">
-        <v>-3.5275956389941238E-5</v>
+        <v>-4.5550775173204512E-5</v>
       </c>
       <c r="X27">
-        <v>-3.5604299554277455E-6</v>
+        <v>-6.9458647205372601E-6</v>
       </c>
       <c r="Y27">
-        <v>-4.9412881450070872E-6</v>
+        <v>-1.131364596135027E-5</v>
       </c>
       <c r="Z27">
-        <v>-5.524515212219672E-6</v>
+        <v>-8.4157737523317003E-6</v>
       </c>
       <c r="AA27">
-        <v>-3.0653165374760252E-6</v>
+        <v>-7.9635684722459592E-6</v>
       </c>
       <c r="AB27">
-        <v>1.2108456765796906E-5</v>
+        <v>1.5064576808990732E-5</v>
       </c>
       <c r="AC27">
-        <v>-4.1071236409216612E-5</v>
+        <v>-4.7641278945051451E-5</v>
       </c>
       <c r="AD27">
-        <v>-5.5271707446293095E-5</v>
+        <v>-6.4592417789912876E-5</v>
       </c>
       <c r="AE27">
-        <v>-1.9932581903474127E-4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:31">
+        <v>-2.222809712468616E-4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>157</v>
+      </c>
+      <c r="B28">
+        <v>0.18483499518673072</v>
+      </c>
+      <c r="C28">
+        <v>9.139708958335078E-5</v>
+      </c>
+      <c r="D28">
+        <v>1.599445550206453E-5</v>
+      </c>
+      <c r="E28">
+        <v>-3.3267552490554085E-7</v>
+      </c>
+      <c r="F28">
+        <v>4.0947001273585132E-5</v>
+      </c>
+      <c r="G28">
+        <v>-1.2555785979818804E-5</v>
+      </c>
+      <c r="H28">
+        <v>-1.8984855570219436E-4</v>
+      </c>
+      <c r="I28">
+        <v>-1.9155221398255593E-4</v>
+      </c>
+      <c r="J28">
+        <v>-5.6620543745716507E-4</v>
+      </c>
+      <c r="K28">
+        <v>-2.4733497036702446E-4</v>
+      </c>
+      <c r="L28">
+        <v>-1.352212215391356E-4</v>
+      </c>
+      <c r="M28">
+        <v>-2.3454238779708689E-5</v>
+      </c>
+      <c r="N28">
+        <v>2.4442497780041705E-4</v>
+      </c>
+      <c r="O28">
+        <v>-3.46251855441463E-4</v>
+      </c>
+      <c r="P28">
+        <v>2.8650797328728895E-4</v>
+      </c>
+      <c r="Q28">
+        <v>4.3469287656459693E-4</v>
+      </c>
+      <c r="R28">
+        <v>1.9159541373727483E-4</v>
+      </c>
+      <c r="S28">
+        <v>5.4956592357811298E-4</v>
+      </c>
+      <c r="T28">
+        <v>4.4585244415514148E-5</v>
+      </c>
+      <c r="U28">
+        <v>7.5728111262543887E-5</v>
+      </c>
+      <c r="V28">
+        <v>-5.4348334646105601E-5</v>
+      </c>
+      <c r="W28">
+        <v>-2.8143961853759243E-4</v>
+      </c>
+      <c r="X28">
+        <v>-4.094667956800875E-4</v>
+      </c>
+      <c r="Y28">
+        <v>-3.4346400815114423E-4</v>
+      </c>
+      <c r="Z28">
+        <v>-4.2423156800400571E-4</v>
+      </c>
+      <c r="AA28">
+        <v>-3.325440264465626E-4</v>
+      </c>
+      <c r="AB28">
+        <v>-4.7641278945051451E-5</v>
+      </c>
+      <c r="AC28">
+        <v>4.3239629841361109E-3</v>
+      </c>
+      <c r="AD28">
+        <v>5.0031501262934081E-4</v>
+      </c>
+      <c r="AE28">
+        <v>8.0205539970163537E-4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>158</v>
       </c>
-      <c r="B28">
-        <v>0.13418634233371773</v>
-      </c>
-      <c r="C28">
-        <v>5.1003162290910677E-5</v>
-      </c>
-      <c r="D28">
-        <v>-3.8679320785091265E-6</v>
-      </c>
-      <c r="E28">
-        <v>-1.0442171253122613E-7</v>
-      </c>
-      <c r="F28">
-        <v>2.3783655110205374E-5</v>
-      </c>
-      <c r="G28">
-        <v>-1.556405180185544E-5</v>
-      </c>
-      <c r="H28">
-        <v>-1.3583845915210804E-4</v>
-      </c>
-      <c r="I28">
-        <v>-1.3496086679268011E-4</v>
-      </c>
-      <c r="J28">
-        <v>-4.398657467689073E-4</v>
-      </c>
-      <c r="K28">
-        <v>-1.8990250696562612E-4</v>
-      </c>
-      <c r="L28">
-        <v>-7.6200477971504006E-5</v>
-      </c>
-      <c r="M28">
-        <v>-1.2258330062727467E-5</v>
-      </c>
-      <c r="N28">
-        <v>1.8285504279891756E-4</v>
-      </c>
-      <c r="O28">
-        <v>-2.7143772984526953E-4</v>
-      </c>
-      <c r="P28">
-        <v>2.0923197436312468E-4</v>
-      </c>
-      <c r="Q28">
-        <v>2.5904282873844768E-4</v>
-      </c>
-      <c r="R28">
-        <v>9.0914040894372352E-5</v>
-      </c>
-      <c r="S28">
-        <v>3.6377283131555334E-4</v>
-      </c>
-      <c r="T28">
-        <v>1.8917215264317756E-5</v>
-      </c>
-      <c r="U28">
-        <v>7.057999342769841E-5</v>
-      </c>
-      <c r="V28">
-        <v>-4.2039487757661668E-5</v>
-      </c>
-      <c r="W28">
-        <v>-2.2593573260363907E-4</v>
-      </c>
-      <c r="X28">
-        <v>-2.9995747962675905E-4</v>
-      </c>
-      <c r="Y28">
-        <v>-2.5238720856677525E-4</v>
-      </c>
-      <c r="Z28">
-        <v>-3.1540427800138345E-4</v>
-      </c>
-      <c r="AA28">
-        <v>-2.5300490166972611E-4</v>
-      </c>
-      <c r="AB28">
-        <v>-4.1071236409216612E-5</v>
-      </c>
-      <c r="AC28">
-        <v>3.527952321986761E-3</v>
-      </c>
-      <c r="AD28">
-        <v>4.1265004586370056E-4</v>
-      </c>
-      <c r="AE28">
-        <v>1.1642219178802432E-3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:31">
-      <c r="A29" t="s">
+      <c r="B29">
+        <v>0.2553164081988526</v>
+      </c>
+      <c r="C29">
+        <v>3.1871611625586197E-5</v>
+      </c>
+      <c r="D29">
+        <v>-8.4789499803705412E-7</v>
+      </c>
+      <c r="E29">
+        <v>5.3732072533643771E-10</v>
+      </c>
+      <c r="F29">
+        <v>-1.3713462561812292E-4</v>
+      </c>
+      <c r="G29">
+        <v>-1.4591666702075E-5</v>
+      </c>
+      <c r="H29">
+        <v>-6.9276175814951497E-5</v>
+      </c>
+      <c r="I29">
+        <v>-1.0723836424498037E-4</v>
+      </c>
+      <c r="J29">
+        <v>-1.1683216362163849E-4</v>
+      </c>
+      <c r="K29">
+        <v>1.0013024798964708E-5</v>
+      </c>
+      <c r="L29">
+        <v>1.6773525165006712E-4</v>
+      </c>
+      <c r="M29">
+        <v>1.1786390440446555E-4</v>
+      </c>
+      <c r="N29">
+        <v>1.3247412823989531E-4</v>
+      </c>
+      <c r="O29">
+        <v>7.4156947946352192E-6</v>
+      </c>
+      <c r="P29">
+        <v>9.2597650744020689E-5</v>
+      </c>
+      <c r="Q29">
+        <v>1.674325737076238E-4</v>
+      </c>
+      <c r="R29">
+        <v>1.9751932488230742E-4</v>
+      </c>
+      <c r="S29">
+        <v>1.1914789870129466E-4</v>
+      </c>
+      <c r="T29">
+        <v>9.9974710957206154E-5</v>
+      </c>
+      <c r="U29">
+        <v>-1.2376680740215802E-5</v>
+      </c>
+      <c r="V29">
+        <v>5.0456480996756252E-5</v>
+      </c>
+      <c r="W29">
+        <v>4.1676135678869736E-4</v>
+      </c>
+      <c r="X29">
+        <v>-3.7713780281046057E-5</v>
+      </c>
+      <c r="Y29">
+        <v>-8.1467334499457698E-5</v>
+      </c>
+      <c r="Z29">
+        <v>-4.2665754442977762E-5</v>
+      </c>
+      <c r="AA29">
+        <v>-5.9740793280549045E-5</v>
+      </c>
+      <c r="AB29">
+        <v>-6.4592417789912876E-5</v>
+      </c>
+      <c r="AC29">
+        <v>5.0031501262934081E-4</v>
+      </c>
+      <c r="AD29">
+        <v>3.1497528107709278E-3</v>
+      </c>
+      <c r="AE29">
+        <v>6.6072784632735244E-4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>159</v>
       </c>
-      <c r="B29">
-        <v>0.23378579613770115</v>
-      </c>
-      <c r="C29">
-        <v>2.4029549536705603E-5</v>
-      </c>
-      <c r="D29">
-        <v>9.5619237365435948E-6</v>
-      </c>
-      <c r="E29">
-        <v>-1.3114703424011713E-7</v>
-      </c>
-      <c r="F29">
-        <v>-9.8136800156383626E-5</v>
-      </c>
-      <c r="G29">
-        <v>-3.7023769566326681E-5</v>
-      </c>
-      <c r="H29">
-        <v>-4.7465408911690655E-5</v>
-      </c>
-      <c r="I29">
-        <v>-5.5003994205833398E-5</v>
-      </c>
-      <c r="J29">
-        <v>-1.3762009352070827E-4</v>
-      </c>
-      <c r="K29">
-        <v>-1.133090407421718E-5</v>
-      </c>
-      <c r="L29">
-        <v>1.7014686825668102E-4</v>
-      </c>
-      <c r="M29">
-        <v>6.808808657556455E-5</v>
-      </c>
-      <c r="N29">
-        <v>8.4348509261520472E-5</v>
-      </c>
-      <c r="O29">
-        <v>-9.2137557026135316E-6</v>
-      </c>
-      <c r="P29">
-        <v>8.7115979236484741E-5</v>
-      </c>
-      <c r="Q29">
-        <v>1.1408549357300929E-4</v>
-      </c>
-      <c r="R29">
-        <v>1.2207085241367177E-4</v>
-      </c>
-      <c r="S29">
-        <v>9.2380228144663243E-5</v>
-      </c>
-      <c r="T29">
-        <v>8.8353245465143219E-5</v>
-      </c>
-      <c r="U29">
-        <v>-1.2127755071688909E-5</v>
-      </c>
-      <c r="V29">
-        <v>2.0502280240054E-5</v>
-      </c>
-      <c r="W29">
-        <v>3.4124225317912514E-4</v>
-      </c>
-      <c r="X29">
-        <v>-1.4957854471257655E-5</v>
-      </c>
-      <c r="Y29">
-        <v>-7.1458737881718555E-5</v>
-      </c>
-      <c r="Z29">
-        <v>-2.1650138282514709E-5</v>
-      </c>
-      <c r="AA29">
-        <v>-4.5695859639753047E-5</v>
-      </c>
-      <c r="AB29">
-        <v>-5.5271707446293095E-5</v>
-      </c>
-      <c r="AC29">
-        <v>4.1265004586370056E-4</v>
-      </c>
-      <c r="AD29">
-        <v>2.3771483338220897E-3</v>
-      </c>
-      <c r="AE29">
-        <v>4.6678310764703828E-4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:31">
-      <c r="A30" t="s">
-        <v>160</v>
-      </c>
       <c r="B30">
-        <v>-6.2522356105588885</v>
+        <v>-4.440019250457321</v>
       </c>
       <c r="C30">
-        <v>-1.0627934613362717E-3</v>
+        <v>-9.7755055185580193E-4</v>
       </c>
       <c r="D30">
-        <v>-1.4409987321354822E-3</v>
+        <v>-1.4848173391173573E-3</v>
       </c>
       <c r="E30">
-        <v>1.3717734062701331E-5</v>
+        <v>1.5052130997645956E-5</v>
       </c>
       <c r="F30">
-        <v>-3.9994973767245142E-4</v>
+        <v>-1.0348626823454951E-3</v>
       </c>
       <c r="G30">
-        <v>3.0544787027448174E-7</v>
+        <v>-3.7806029081242627E-4</v>
       </c>
       <c r="H30">
-        <v>2.4993096846078822E-4</v>
+        <v>2.1617339996878303E-4</v>
       </c>
       <c r="I30">
-        <v>6.6637987152668267E-4</v>
+        <v>4.3660119300894287E-4</v>
       </c>
       <c r="J30">
-        <v>-1.0254655572243952E-3</v>
+        <v>-4.7877964835858094E-4</v>
       </c>
       <c r="K30">
-        <v>-1.3753554373786733E-5</v>
+        <v>1.077443920858306E-4</v>
       </c>
       <c r="L30">
-        <v>-8.9836067671225806E-3</v>
+        <v>-9.2545735718016706E-3</v>
       </c>
       <c r="M30">
-        <v>-8.591405224673436E-3</v>
+        <v>-9.08382834147008E-3</v>
       </c>
       <c r="N30">
-        <v>-8.1985229653298384E-3</v>
+        <v>-8.8847384668825392E-3</v>
       </c>
       <c r="O30">
-        <v>-9.1179883159259751E-3</v>
+        <v>-9.8412104648498977E-3</v>
       </c>
       <c r="P30">
-        <v>-1.2342900576065938E-3</v>
+        <v>1.3582692193481649E-4</v>
       </c>
       <c r="Q30">
-        <v>-1.3425604392869775E-3</v>
+        <v>-5.1067774919398004E-4</v>
       </c>
       <c r="R30">
-        <v>-1.0852694211296386E-3</v>
+        <v>-1.6435358980431032E-4</v>
       </c>
       <c r="S30">
-        <v>-8.16534371199523E-4</v>
+        <v>8.6658931463502612E-5</v>
       </c>
       <c r="T30">
-        <v>2.9372989306800508E-4</v>
+        <v>-5.3997109975338113E-6</v>
       </c>
       <c r="U30">
-        <v>-5.516883470381513E-4</v>
+        <v>-1.2779686550044473E-4</v>
       </c>
       <c r="V30">
-        <v>-1.6200548047825569E-3</v>
+        <v>-2.0099270617595106E-3</v>
       </c>
       <c r="W30">
-        <v>-4.5483916703289946E-4</v>
+        <v>6.0033210827087829E-5</v>
       </c>
       <c r="X30">
-        <v>-6.6059350828457546E-4</v>
+        <v>-4.1740194483644939E-4</v>
       </c>
       <c r="Y30">
-        <v>-9.2307575863687487E-4</v>
+        <v>-8.4197121883529706E-4</v>
       </c>
       <c r="Z30">
-        <v>-1.6332616239231042E-3</v>
+        <v>-1.6384722489134272E-3</v>
       </c>
       <c r="AA30">
-        <v>-1.1381778631689393E-3</v>
+        <v>-1.1065479426842603E-3</v>
       </c>
       <c r="AB30">
-        <v>-1.9932581903474127E-4</v>
+        <v>-2.222809712468616E-4</v>
       </c>
       <c r="AC30">
-        <v>1.1642219178802432E-3</v>
+        <v>8.0205539970163537E-4</v>
       </c>
       <c r="AD30">
-        <v>4.6678310764703828E-4</v>
+        <v>6.6072784632735244E-4</v>
       </c>
       <c r="AE30">
-        <v>5.076667359935489E-2</v>
+        <v>4.970684982235446E-2</v>
       </c>
     </row>
   </sheetData>

--- a/input/PL/reg_health.xlsx
+++ b/input/PL/reg_health.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29728"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10201"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashleyburdett/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pineapple/IdeaProjects/SimPathsEU_JAN/input/PL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{74DADF49-2C46-9D41-80DE-2C7D915282A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{40DFA3B6-0F51-4300-BF3A-C5C861AE3B65}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F26EEA6-8C14-454D-BAF9-7F3A84568191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="660" windowWidth="34560" windowHeight="20180" firstSheet="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="34560" windowHeight="20180" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="124">
   <si>
     <t>Description:</t>
   </si>
@@ -326,9 +326,6 @@
     <t>Constant_VeryGood</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Dgn</t>
   </si>
   <si>
@@ -420,7 +417,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -807,13 +804,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -821,7 +818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -829,7 +826,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -837,7 +834,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -845,7 +842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -853,17 +850,17 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -871,7 +868,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>13</v>
       </c>
@@ -890,19 +887,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -916,7 +913,7 @@
         <v>13192.580589398955</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -937,19 +934,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D987FF1B-1A34-F74C-BFCD-534EA01B9051}">
-  <dimension ref="A1:BW73"/>
+  <dimension ref="A1:BV73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView topLeftCell="AR1" workbookViewId="0">
+      <selection activeCell="BW2" sqref="BW2:BW73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.7109375" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="1" width="33.6640625" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:75">
+    <row r="1" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
@@ -1172,11 +1169,8 @@
       <c r="BV1" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="BW1" s="2" t="s">
-        <v>95</v>
-      </c>
     </row>
-    <row r="2" spans="1:75">
+    <row r="2" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
@@ -1400,7 +1394,7 @@
         <v>8.3845124420664531E-6</v>
       </c>
     </row>
-    <row r="3" spans="1:75">
+    <row r="3" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
@@ -1624,7 +1618,7 @@
         <v>-1.2790177624525648E-5</v>
       </c>
     </row>
-    <row r="4" spans="1:75">
+    <row r="4" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>25</v>
       </c>
@@ -1848,7 +1842,7 @@
         <v>9.7035284665638929E-8</v>
       </c>
     </row>
-    <row r="5" spans="1:75">
+    <row r="5" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>26</v>
       </c>
@@ -2072,7 +2066,7 @@
         <v>4.295714425938936E-7</v>
       </c>
     </row>
-    <row r="6" spans="1:75">
+    <row r="6" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>27</v>
       </c>
@@ -2296,7 +2290,7 @@
         <v>-8.9425298677476338E-5</v>
       </c>
     </row>
-    <row r="7" spans="1:75">
+    <row r="7" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
@@ -2520,7 +2514,7 @@
         <v>-6.6007249398807326E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:75">
+    <row r="8" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>29</v>
       </c>
@@ -2744,7 +2738,7 @@
         <v>-8.5684680128256046E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:75">
+    <row r="9" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>30</v>
       </c>
@@ -2968,7 +2962,7 @@
         <v>-1.0678612492180718E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:75">
+    <row r="10" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>31</v>
       </c>
@@ -3192,7 +3186,7 @@
         <v>-1.3435908381603996E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:75">
+    <row r="11" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>32</v>
       </c>
@@ -3416,7 +3410,7 @@
         <v>-8.9510883154968998E-5</v>
       </c>
     </row>
-    <row r="12" spans="1:75">
+    <row r="12" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>33</v>
       </c>
@@ -3640,7 +3634,7 @@
         <v>-4.6631485131188302E-5</v>
       </c>
     </row>
-    <row r="13" spans="1:75">
+    <row r="13" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>34</v>
       </c>
@@ -3864,7 +3858,7 @@
         <v>-2.7157685076887586E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:75">
+    <row r="14" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>35</v>
       </c>
@@ -4088,7 +4082,7 @@
         <v>-1.9087800636316763E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:75">
+    <row r="15" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>36</v>
       </c>
@@ -4312,7 +4306,7 @@
         <v>1.9422343795749559E-6</v>
       </c>
     </row>
-    <row r="16" spans="1:75">
+    <row r="16" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>37</v>
       </c>
@@ -4536,7 +4530,7 @@
         <v>4.094861595811893E-6</v>
       </c>
     </row>
-    <row r="17" spans="1:74">
+    <row r="17" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>38</v>
       </c>
@@ -4760,7 +4754,7 @@
         <v>-1.0023856945598798E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:74">
+    <row r="18" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>39</v>
       </c>
@@ -4984,7 +4978,7 @@
         <v>-5.9645674489044683E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:74">
+    <row r="19" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>40</v>
       </c>
@@ -5208,7 +5202,7 @@
         <v>-1.4975490457535439E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:74">
+    <row r="20" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>41</v>
       </c>
@@ -5432,7 +5426,7 @@
         <v>3.1996994018132355E-5</v>
       </c>
     </row>
-    <row r="21" spans="1:74">
+    <row r="21" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>42</v>
       </c>
@@ -5656,7 +5650,7 @@
         <v>-4.9006662333421579E-5</v>
       </c>
     </row>
-    <row r="22" spans="1:74">
+    <row r="22" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>43</v>
       </c>
@@ -5880,7 +5874,7 @@
         <v>-1.5705042921266625E-5</v>
       </c>
     </row>
-    <row r="23" spans="1:74">
+    <row r="23" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>44</v>
       </c>
@@ -6104,7 +6098,7 @@
         <v>-2.2606923800853338E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:74">
+    <row r="24" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>45</v>
       </c>
@@ -6328,7 +6322,7 @@
         <v>6.7206571857118537E-5</v>
       </c>
     </row>
-    <row r="25" spans="1:74">
+    <row r="25" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>46</v>
       </c>
@@ -6552,7 +6546,7 @@
         <v>1.9320136523491786E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:74">
+    <row r="26" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>47</v>
       </c>
@@ -6776,7 +6770,7 @@
         <v>-7.2906710439951669E-5</v>
       </c>
     </row>
-    <row r="27" spans="1:74">
+    <row r="27" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>48</v>
       </c>
@@ -7000,7 +6994,7 @@
         <v>-2.2114291755728164E-5</v>
       </c>
     </row>
-    <row r="28" spans="1:74">
+    <row r="28" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>49</v>
       </c>
@@ -7224,7 +7218,7 @@
         <v>1.7039144933796389E-7</v>
       </c>
     </row>
-    <row r="29" spans="1:74">
+    <row r="29" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>50</v>
       </c>
@@ -7448,7 +7442,7 @@
         <v>-2.0836291936670911E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:74">
+    <row r="30" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>51</v>
       </c>
@@ -7672,7 +7666,7 @@
         <v>-2.0767521984875435E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:74">
+    <row r="31" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>52</v>
       </c>
@@ -7896,7 +7890,7 @@
         <v>-2.3306256488971398E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:74">
+    <row r="32" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>53</v>
       </c>
@@ -8120,7 +8114,7 @@
         <v>-2.4450986617872705E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:74">
+    <row r="33" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>54</v>
       </c>
@@ -8344,7 +8338,7 @@
         <v>-1.0537016189484755E-4</v>
       </c>
     </row>
-    <row r="34" spans="1:74">
+    <row r="34" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>55</v>
       </c>
@@ -8568,7 +8562,7 @@
         <v>-2.0103214791417252E-4</v>
       </c>
     </row>
-    <row r="35" spans="1:74">
+    <row r="35" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>56</v>
       </c>
@@ -8792,7 +8786,7 @@
         <v>1.7280799388461364E-5</v>
       </c>
     </row>
-    <row r="36" spans="1:74">
+    <row r="36" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>57</v>
       </c>
@@ -9016,7 +9010,7 @@
         <v>-5.8481636571108412E-5</v>
       </c>
     </row>
-    <row r="37" spans="1:74">
+    <row r="37" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>58</v>
       </c>
@@ -9240,7 +9234,7 @@
         <v>-9.3305946274750129E-6</v>
       </c>
     </row>
-    <row r="38" spans="1:74">
+    <row r="38" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>59</v>
       </c>
@@ -9464,7 +9458,7 @@
         <v>-1.4360902626033974E-4</v>
       </c>
     </row>
-    <row r="39" spans="1:74">
+    <row r="39" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>60</v>
       </c>
@@ -9688,7 +9682,7 @@
         <v>-5.5742762409227672E-5</v>
       </c>
     </row>
-    <row r="40" spans="1:74">
+    <row r="40" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>61</v>
       </c>
@@ -9912,7 +9906,7 @@
         <v>6.6928552242923598E-5</v>
       </c>
     </row>
-    <row r="41" spans="1:74">
+    <row r="41" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>62</v>
       </c>
@@ -10136,7 +10130,7 @@
         <v>2.1065005537502256E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:74">
+    <row r="42" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>63</v>
       </c>
@@ -10360,7 +10354,7 @@
         <v>-5.9741036708225716E-5</v>
       </c>
     </row>
-    <row r="43" spans="1:74">
+    <row r="43" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>64</v>
       </c>
@@ -10584,7 +10578,7 @@
         <v>-6.4751109558065505E-5</v>
       </c>
     </row>
-    <row r="44" spans="1:74">
+    <row r="44" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>65</v>
       </c>
@@ -10808,7 +10802,7 @@
         <v>5.961441493008327E-7</v>
       </c>
     </row>
-    <row r="45" spans="1:74">
+    <row r="45" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>66</v>
       </c>
@@ -11032,7 +11026,7 @@
         <v>-1.0794524903055569E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:74">
+    <row r="46" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>67</v>
       </c>
@@ -11256,7 +11250,7 @@
         <v>-1.084900260137416E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:74">
+    <row r="47" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>68</v>
       </c>
@@ -11480,7 +11474,7 @@
         <v>-1.0899506785011863E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:74">
+    <row r="48" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>69</v>
       </c>
@@ -11704,7 +11698,7 @@
         <v>-1.0999954788651137E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:74">
+    <row r="49" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>70</v>
       </c>
@@ -11928,7 +11922,7 @@
         <v>-2.8066490693565237E-5</v>
       </c>
     </row>
-    <row r="50" spans="1:74">
+    <row r="50" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>71</v>
       </c>
@@ -12152,7 +12146,7 @@
         <v>-6.2472209808942772E-4</v>
       </c>
     </row>
-    <row r="51" spans="1:74">
+    <row r="51" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>72</v>
       </c>
@@ -12376,7 +12370,7 @@
         <v>-1.9598227509087758E-4</v>
       </c>
     </row>
-    <row r="52" spans="1:74">
+    <row r="52" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>73</v>
       </c>
@@ -12600,7 +12594,7 @@
         <v>-6.2891417266685127E-6</v>
       </c>
     </row>
-    <row r="53" spans="1:74">
+    <row r="53" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>74</v>
       </c>
@@ -12824,7 +12818,7 @@
         <v>-1.4446428482840448E-4</v>
       </c>
     </row>
-    <row r="54" spans="1:74">
+    <row r="54" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>75</v>
       </c>
@@ -13048,7 +13042,7 @@
         <v>-2.2768500051553327E-4</v>
       </c>
     </row>
-    <row r="55" spans="1:74">
+    <row r="55" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>76</v>
       </c>
@@ -13272,7 +13266,7 @@
         <v>-1.4757879787787799E-4</v>
       </c>
     </row>
-    <row r="56" spans="1:74">
+    <row r="56" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>77</v>
       </c>
@@ -13496,7 +13490,7 @@
         <v>6.6281016101589013E-5</v>
       </c>
     </row>
-    <row r="57" spans="1:74">
+    <row r="57" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>78</v>
       </c>
@@ -13720,7 +13714,7 @@
         <v>3.107341222864541E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:74">
+    <row r="58" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>79</v>
       </c>
@@ -13944,7 +13938,7 @@
         <v>-4.5132771302849189E-4</v>
       </c>
     </row>
-    <row r="59" spans="1:74">
+    <row r="59" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>80</v>
       </c>
@@ -14168,7 +14162,7 @@
         <v>-5.5956380111732407E-4</v>
       </c>
     </row>
-    <row r="60" spans="1:74">
+    <row r="60" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>81</v>
       </c>
@@ -14392,7 +14386,7 @@
         <v>5.6039427366635544E-6</v>
       </c>
     </row>
-    <row r="61" spans="1:74">
+    <row r="61" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>82</v>
       </c>
@@ -14616,7 +14610,7 @@
         <v>-5.3702384439649496E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:74">
+    <row r="62" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>83</v>
       </c>
@@ -14840,7 +14834,7 @@
         <v>-5.4080110039879614E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:74">
+    <row r="63" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>84</v>
       </c>
@@ -15064,7 +15058,7 @@
         <v>-5.4673378075727058E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:74">
+    <row r="64" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>85</v>
       </c>
@@ -15288,7 +15282,7 @@
         <v>-5.4897047787711928E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:74">
+    <row r="65" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>86</v>
       </c>
@@ -15512,7 +15506,7 @@
         <v>-7.8778933344475933E-4</v>
       </c>
     </row>
-    <row r="66" spans="1:74">
+    <row r="66" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>87</v>
       </c>
@@ -15736,7 +15730,7 @@
         <v>-3.1879105921643865E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:74">
+    <row r="67" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>88</v>
       </c>
@@ -15960,7 +15954,7 @@
         <v>-1.4845521636138491E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:74">
+    <row r="68" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>89</v>
       </c>
@@ -16184,7 +16178,7 @@
         <v>-2.8370743739242888E-4</v>
       </c>
     </row>
-    <row r="69" spans="1:74">
+    <row r="69" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>90</v>
       </c>
@@ -16408,7 +16402,7 @@
         <v>-6.0537928596875938E-4</v>
       </c>
     </row>
-    <row r="70" spans="1:74">
+    <row r="70" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>91</v>
       </c>
@@ -16632,7 +16626,7 @@
         <v>-1.4927729418009452E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:74">
+    <row r="71" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>92</v>
       </c>
@@ -16856,7 +16850,7 @@
         <v>-4.3857321462845308E-4</v>
       </c>
     </row>
-    <row r="72" spans="1:74">
+    <row r="72" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>93</v>
       </c>
@@ -17080,7 +17074,7 @@
         <v>6.5407195073386879E-5</v>
       </c>
     </row>
-    <row r="73" spans="1:74">
+    <row r="73" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>94</v>
       </c>
@@ -17311,13 +17305,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AF30"/>
+  <dimension ref="A1:AE30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R16" sqref="R16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -17325,99 +17321,96 @@
         <v>22</v>
       </c>
       <c r="C1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1" t="s">
         <v>96</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>97</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>98</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>99</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>100</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>101</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>102</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>103</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>104</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>105</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>106</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>107</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>108</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>109</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>110</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>111</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>112</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>113</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>114</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>115</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>116</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>117</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>118</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>119</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>120</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>121</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>122</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>123</v>
       </c>
-      <c r="AE1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AF1" t="s">
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>95</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32">
-      <c r="A2" t="s">
-        <v>96</v>
       </c>
       <c r="B2">
         <v>0.1284783664970732</v>
@@ -17510,9 +17503,9 @@
         <v>-1.0119295585513386E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:32">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B3">
         <v>3.7488743125440295E-2</v>
@@ -17605,9 +17598,9 @@
         <v>-1.5892853410290793E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:32">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B4">
         <v>-3.8334491074713952E-4</v>
@@ -17700,9 +17693,9 @@
         <v>1.6071297443999355E-5</v>
       </c>
     </row>
-    <row r="5" spans="1:32">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B5">
         <v>4.4570093961561703E-2</v>
@@ -17795,9 +17788,9 @@
         <v>-1.0517091259854376E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:32">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B6">
         <v>-0.21288447366929097</v>
@@ -17890,9 +17883,9 @@
         <v>-4.0794457840763064E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:32">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B7">
         <v>-0.36286044837297854</v>
@@ -17985,9 +17978,9 @@
         <v>1.9897477847352212E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:32">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B8">
         <v>-0.49994184411256626</v>
@@ -18080,9 +18073,9 @@
         <v>4.947281949105669E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:32">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B9">
         <v>-0.26213417684943685</v>
@@ -18175,9 +18168,9 @@
         <v>-8.7876303844474496E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:32">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B10">
         <v>-3.8895436030319322E-2</v>
@@ -18270,9 +18263,9 @@
         <v>-1.6685919692755193E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:32">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B11">
         <v>2.2488359484194791</v>
@@ -18365,9 +18358,9 @@
         <v>-9.2148308630497014E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:32">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B12">
         <v>1.9559635602331087</v>
@@ -18460,9 +18453,9 @@
         <v>-9.0550632103783644E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:32">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B13">
         <v>1.4242139742896991</v>
@@ -18555,9 +18548,9 @@
         <v>-8.876807164860865E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:32">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B14">
         <v>0.61510998545832007</v>
@@ -18650,9 +18643,9 @@
         <v>-9.9496734182461001E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:32">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B15">
         <v>-9.5901618193934279E-2</v>
@@ -18745,9 +18738,9 @@
         <v>-5.1415108699594974E-5</v>
       </c>
     </row>
-    <row r="16" spans="1:32">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B16">
         <v>-4.3118894163539619E-3</v>
@@ -18840,9 +18833,9 @@
         <v>-6.6931893039293274E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:31">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B17">
         <v>-4.1655923345639374E-3</v>
@@ -18935,9 +18928,9 @@
         <v>-3.1458434710124555E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:31">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B18">
         <v>-8.3675237424668796E-3</v>
@@ -19030,9 +19023,9 @@
         <v>-2.6432605674720291E-5</v>
       </c>
     </row>
-    <row r="19" spans="1:31">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B19">
         <v>3.0554986293204256</v>
@@ -19125,9 +19118,9 @@
         <v>8.3054988050408764E-5</v>
       </c>
     </row>
-    <row r="20" spans="1:31">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B20">
         <v>-0.30980749651543793</v>
@@ -19220,9 +19213,9 @@
         <v>-5.6338260547464417E-5</v>
       </c>
     </row>
-    <row r="21" spans="1:31">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B21">
         <v>-8.4942787693746774E-2</v>
@@ -19315,9 +19308,9 @@
         <v>-2.1633533272268522E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:31">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B22">
         <v>-0.32979643659351687</v>
@@ -19410,9 +19403,9 @@
         <v>2.0864193876174011E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:31">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B23">
         <v>0.10519861119949105</v>
@@ -19505,9 +19498,9 @@
         <v>-4.8029089668309688E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:31">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B24">
         <v>-2.0464004720107511E-3</v>
@@ -19600,9 +19593,9 @@
         <v>-8.9967105822487945E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:31">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B25">
         <v>9.5508393160406074E-2</v>
@@ -19695,9 +19688,9 @@
         <v>-1.7219337612428597E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:31">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B26">
         <v>7.4843363688279818E-2</v>
@@ -19790,9 +19783,9 @@
         <v>-1.1399722463119513E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:31">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B27">
         <v>8.5100358359127739E-3</v>
@@ -19885,9 +19878,9 @@
         <v>-2.0791996004202327E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:31">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B28">
         <v>0.18213314893728641</v>
@@ -19980,9 +19973,9 @@
         <v>8.6994691965731235E-4</v>
       </c>
     </row>
-    <row r="29" spans="1:31">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B29">
         <v>0.25427383825045052</v>
@@ -20075,9 +20068,9 @@
         <v>7.3291797463296117E-4</v>
       </c>
     </row>
-    <row r="30" spans="1:31">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B30">
         <v>-4.2528114629984879</v>
